--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.559189646205141</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.312433989874819</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1020959887241588</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007650291946657749</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.370316031772205</v>
+      </c>
+      <c r="N2">
+        <v>1.520029762828756</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.909992177766298</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.121431723408477</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08796131123585127</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007770990650576436</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>1.174484247397928</v>
+      </c>
+      <c r="N3">
+        <v>1.485066867934876</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.522248247812058</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.007420725967307</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.07955908106562148</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007846299666847342</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.057637504560887</v>
+      </c>
+      <c r="N4">
+        <v>1.466807362908568</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.36654318359399</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9616462122141911</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.07619424130652419</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007877335028022152</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.010741126167979</v>
+      </c>
+      <c r="N5">
+        <v>1.460084745191878</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.340816064780142</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.9540831795911231</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.07563880390195621</v>
       </c>
       <c r="F6">
         <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007882510550740615</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1.002993870968545</v>
+      </c>
+      <c r="N6">
+        <v>1.459009459975988</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.520139555832429</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.006800784165932</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.07951347503468753</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007846716763889745</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.057002295155641</v>
+      </c>
+      <c r="N7">
+        <v>1.46671390005362</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.332815746767153</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.245811749351731</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.09715827900411256</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007691688565205736</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.302002503408303</v>
+      </c>
+      <c r="N8">
+        <v>1.507252017243616</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6.0353806898014</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.747602766364935</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1345044875438752</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007394839250314682</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.816485714283942</v>
+      </c>
+      <c r="N9">
+        <v>1.616869340830874</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7.390936116610249</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.148621269662499</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1645460392890925</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000717714671666494</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.227224836742209</v>
+      </c>
+      <c r="N10">
+        <v>1.723640541081522</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>8.041410487906887</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.341624781490964</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1790471674938701</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007077059165671934</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2.424665445998144</v>
+      </c>
+      <c r="N11">
+        <v>1.780190016999825</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>8.293782546570355</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.416614921676057</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1846874349374801</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007038884042540605</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.501328569849406</v>
+      </c>
+      <c r="N12">
+        <v>1.802997239223288</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>8.239138604846573</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.400372676120128</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1834655403622918</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007047120185663669</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.484726531223629</v>
+      </c>
+      <c r="N13">
+        <v>1.798018785116767</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>8.062044200756077</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.347753584878262</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1795080192158807</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007073924768792227</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.430932099611383</v>
+      </c>
+      <c r="N14">
+        <v>1.782036842619647</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7.95439684927328</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.315783742342148</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1771043025061729</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007090303543826493</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.398241039378775</v>
+      </c>
+      <c r="N15">
+        <v>1.772437157548836</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>7.349202162206041</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.136251611943067</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1636174840260978</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007183656577374455</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.214564784285869</v>
+      </c>
+      <c r="N16">
+        <v>1.720125200071209</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.987361640716813</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.029069280362535</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1555762268711121</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007240576193270469</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.10483841499736</v>
+      </c>
+      <c r="N17">
+        <v>1.690234990622031</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6.782339563774883</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.968389092436894</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.1510276437380718</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007273223957093127</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.042697126493835</v>
+      </c>
+      <c r="N18">
+        <v>1.673776363218337</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6.71342294156625</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.947999859127719</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1494999392476473</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007284265600313921</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2.021813792007407</v>
+      </c>
+      <c r="N19">
+        <v>1.668323116425171</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>7.025551695456556</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.04037631984022</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1564241226134442</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007234527205675596</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2.1164161047313</v>
+      </c>
+      <c r="N20">
+        <v>1.693339343734948</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>8.113886018379219</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.363153903951854</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.1806661304530763</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007066060168317012</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2.446677935437052</v>
+      </c>
+      <c r="N21">
+        <v>1.786691065728434</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>8.861220749603206</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.585455748786842</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.1973970225305095</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006954280035640234</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.673821474793243</v>
+      </c>
+      <c r="N22">
+        <v>1.855982387928719</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8.458585520037047</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.465618489840324</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.1883747760631564</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007014140969882429</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2.551408847953255</v>
+      </c>
+      <c r="N23">
+        <v>1.818145146768103</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>7.008276698029078</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.035261505893459</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1560405591649356</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007237262181137291</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2.11117892447372</v>
+      </c>
+      <c r="N24">
+        <v>1.6919336232028</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5.559600289433149</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.607192037251309</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.1240217609592165</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007474744530416906</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>1.672554346324659</v>
+      </c>
+      <c r="N25">
+        <v>1.583264618680317</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.559189646205141</v>
+        <v>2.608182610180393</v>
       </c>
       <c r="C2">
-        <v>1.312433989874819</v>
+        <v>0.4314643799291531</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1020959887241588</v>
+        <v>0.09623366354855811</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.7179263750312757</v>
       </c>
       <c r="G2">
-        <v>0.0007650291946657749</v>
+        <v>0.2027248849531347</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2038440270421802</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1962318638611062</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.09460265421802205</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3577803729108666</v>
       </c>
       <c r="M2">
-        <v>1.370316031772205</v>
+        <v>0.5264822930016493</v>
       </c>
       <c r="N2">
-        <v>1.520029762828756</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8059916312506772</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.909992177766298</v>
+        <v>2.271944887525535</v>
       </c>
       <c r="C3">
-        <v>1.121431723408477</v>
+        <v>0.4037305217367901</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08796131123585127</v>
+        <v>0.09784370600938352</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.6975350036637451</v>
       </c>
       <c r="G3">
-        <v>0.0007770990650576436</v>
+        <v>0.19843272313949</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2078905717245974</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2096879995780494</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08490145814529626</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3256862032779253</v>
       </c>
       <c r="M3">
-        <v>1.174484247397928</v>
+        <v>0.4595181948827332</v>
       </c>
       <c r="N3">
-        <v>1.485066867934876</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8050087340410812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.522248247812058</v>
+        <v>2.065381210035866</v>
       </c>
       <c r="C4">
-        <v>1.007420725967307</v>
+        <v>0.3867618047925561</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07955908106562148</v>
+        <v>0.09896302105282118</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.6865600034469708</v>
       </c>
       <c r="G4">
-        <v>0.0007846299666847342</v>
+        <v>0.1965736200134316</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2108698498304875</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2186754302777096</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07893926161938225</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3062045107982527</v>
       </c>
       <c r="M4">
-        <v>1.057637504560887</v>
+        <v>0.4184446503036412</v>
       </c>
       <c r="N4">
-        <v>1.466807362908568</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8070778596049308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.36654318359399</v>
+        <v>1.981158015862036</v>
       </c>
       <c r="C5">
-        <v>0.9616462122141911</v>
+        <v>0.3798605201730112</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07619424130652419</v>
+        <v>0.0994513903785883</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.6824599573001819</v>
       </c>
       <c r="G5">
-        <v>0.0007877335028022152</v>
+        <v>0.1960013031195658</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2122039461602583</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2225138106441982</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07650773160483482</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2983184826347269</v>
       </c>
       <c r="M5">
-        <v>1.010741126167979</v>
+        <v>0.4017133761895266</v>
       </c>
       <c r="N5">
-        <v>1.460084745191878</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8085628832877916</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.340816064780142</v>
+        <v>1.96716947317941</v>
       </c>
       <c r="C6">
-        <v>0.9540831795911231</v>
+        <v>0.3787153479620713</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07563880390195621</v>
+        <v>0.09953441272377184</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>0.6818011749728043</v>
       </c>
       <c r="G6">
-        <v>0.0007882510550740615</v>
+        <v>0.19591717879063</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2124325961452271</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2231616126855158</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07610385072538151</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.297012111802502</v>
       </c>
       <c r="M6">
-        <v>1.002993870968545</v>
+        <v>0.3989354374654184</v>
       </c>
       <c r="N6">
-        <v>1.459009459975988</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8088473767713538</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.520139555832429</v>
+        <v>2.064245559758376</v>
       </c>
       <c r="C7">
-        <v>1.006800784165932</v>
+        <v>0.3866686784338214</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07951347503468753</v>
+        <v>0.0989694776604999</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>0.6865032221086196</v>
       </c>
       <c r="G7">
-        <v>0.0007846716763889745</v>
+        <v>0.1965651641510391</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.210887361622504</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2187264920232916</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07890647739679935</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3060979472533631</v>
       </c>
       <c r="M7">
-        <v>1.057002295155641</v>
+        <v>0.4182189854180223</v>
       </c>
       <c r="N7">
-        <v>1.46671390005362</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8070953273590504</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.332815746767153</v>
+        <v>2.49225948996218</v>
       </c>
       <c r="C8">
-        <v>1.245811749351731</v>
+        <v>0.421888360417455</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09715827900411256</v>
+        <v>0.09676128018599783</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.7105646904445209</v>
       </c>
       <c r="G8">
-        <v>0.0007691688565205736</v>
+        <v>0.2010777188063528</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2051339118641735</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2007170370103406</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09125855229816437</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3466656040010179</v>
       </c>
       <c r="M8">
-        <v>1.302002503408303</v>
+        <v>0.5033815801811627</v>
       </c>
       <c r="N8">
-        <v>1.507252017243616</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8050794312119791</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.0353806898014</v>
+        <v>3.331644861531345</v>
       </c>
       <c r="C9">
-        <v>1.747602766364935</v>
+        <v>0.4915063128142094</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1345044875438752</v>
+        <v>0.09349822301761535</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.7707805108828367</v>
       </c>
       <c r="G9">
-        <v>0.0007394839250314682</v>
+        <v>0.2165558493693212</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1979832043696206</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1714586133162541</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1154602842605996</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.428167543057171</v>
       </c>
       <c r="M9">
-        <v>1.816485714283942</v>
+        <v>0.6709349872125472</v>
       </c>
       <c r="N9">
-        <v>1.616869340830874</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.8237609844047995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.390936116610249</v>
+        <v>3.949840253983723</v>
       </c>
       <c r="C10">
-        <v>2.148621269662499</v>
+        <v>0.5431116961899534</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1645460392890925</v>
+        <v>0.0917946067521509</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>0.8240917399516832</v>
       </c>
       <c r="G10">
-        <v>0.000717714671666494</v>
+        <v>0.2326554918644987</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.195550448111284</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1540956054785276</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1332659316389808</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.489490189824096</v>
       </c>
       <c r="M10">
-        <v>2.227224836742209</v>
+        <v>0.79469731884965</v>
       </c>
       <c r="N10">
-        <v>1.723640541081522</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.8533740384020376</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.041410487906887</v>
+        <v>4.231755159854288</v>
       </c>
       <c r="C11">
-        <v>2.341624781490964</v>
+        <v>0.5667171396449362</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1790471674938701</v>
+        <v>0.09118024977932393</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.8505784284327689</v>
       </c>
       <c r="G11">
-        <v>0.0007077059165671934</v>
+        <v>0.2411678596619282</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1951273895245222</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1471973362848189</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1413804900213833</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5177614678824369</v>
       </c>
       <c r="M11">
-        <v>2.424665445998144</v>
+        <v>0.8512220868718998</v>
       </c>
       <c r="N11">
-        <v>1.780190016999825</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.8707874470942301</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.293782546570355</v>
+        <v>4.338639716245723</v>
       </c>
       <c r="C12">
-        <v>2.416614921676057</v>
+        <v>0.5756771571630281</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1846874349374801</v>
+        <v>0.0909715904944548</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>0.8609530341950773</v>
       </c>
       <c r="G12">
-        <v>0.0007038884042540605</v>
+        <v>0.2445765637534123</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1950718417288257</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1447381843640532</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1444561363813577</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5285263101340121</v>
       </c>
       <c r="M12">
-        <v>2.501328569849406</v>
+        <v>0.8726656512914843</v>
       </c>
       <c r="N12">
-        <v>1.802997239223288</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.8779921447975596</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.239138604846573</v>
+        <v>4.31561395914963</v>
       </c>
       <c r="C13">
-        <v>2.400372676120128</v>
+        <v>0.5737464749905712</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1834655403622918</v>
+        <v>0.09101544766019565</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.8587029619780111</v>
       </c>
       <c r="G13">
-        <v>0.0007047120185663669</v>
+        <v>0.2438339607970406</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1950790448026822</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1452608455512596</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1437936024757249</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5262051934274865</v>
       </c>
       <c r="M13">
-        <v>2.484726531223629</v>
+        <v>0.8680455580132218</v>
       </c>
       <c r="N13">
-        <v>1.798018785116767</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.8764126004038815</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.062044200756077</v>
+        <v>4.24054584353911</v>
       </c>
       <c r="C14">
-        <v>2.347753584878262</v>
+        <v>0.567453846962394</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1795080192158807</v>
+        <v>0.09116259732192766</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.8514249073723192</v>
       </c>
       <c r="G14">
-        <v>0.0007073924768792227</v>
+        <v>0.2414444975694252</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.195120684271636</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1469918976166511</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1416334640385983</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5186458822551003</v>
       </c>
       <c r="M14">
-        <v>2.430932099611383</v>
+        <v>0.8529854436862934</v>
       </c>
       <c r="N14">
-        <v>1.782036842619647</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.8713676837261772</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.95439684927328</v>
+        <v>4.194582237475288</v>
       </c>
       <c r="C15">
-        <v>2.315783742342148</v>
+        <v>0.5636022615048546</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1771043025061729</v>
+        <v>0.09125588134454965</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.8470124901631522</v>
       </c>
       <c r="G15">
-        <v>0.0007090303543826493</v>
+        <v>0.2400054494083008</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1951600144049408</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1480724355027707</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1403107091269362</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5140234443531284</v>
       </c>
       <c r="M15">
-        <v>2.398241039378775</v>
+        <v>0.8437659526183694</v>
       </c>
       <c r="N15">
-        <v>1.772437157548836</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.8683583927177381</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.349202162206041</v>
+        <v>3.93143291002167</v>
       </c>
       <c r="C16">
-        <v>2.136251611943067</v>
+        <v>0.5415718452913154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1636174840260978</v>
+        <v>0.09183806333337685</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.8224077053420302</v>
       </c>
       <c r="G16">
-        <v>0.0007183656577374455</v>
+        <v>0.2321243107291266</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1955923858416071</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.154567328083882</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1327359826368024</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4876505801574211</v>
       </c>
       <c r="M16">
-        <v>2.214564784285869</v>
+        <v>0.791008362455706</v>
       </c>
       <c r="N16">
-        <v>1.720125200071209</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.852319034239585</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.987361640716813</v>
+        <v>3.77019760515401</v>
       </c>
       <c r="C17">
-        <v>2.029069280362535</v>
+        <v>0.5280918618215651</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1555762268711121</v>
+        <v>0.092236969254607</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.8079020459886124</v>
       </c>
       <c r="G17">
-        <v>0.0007240576193270469</v>
+        <v>0.2276038262599727</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1960371149081013</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.158814319755793</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1280933951024892</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4715713658287939</v>
       </c>
       <c r="M17">
-        <v>2.10483841499736</v>
+        <v>0.7587053438078328</v>
       </c>
       <c r="N17">
-        <v>1.690234990622031</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.8435193615392649</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.782339563774883</v>
+        <v>3.677522807069749</v>
       </c>
       <c r="C18">
-        <v>1.968389092436894</v>
+        <v>0.5203505984953551</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1510276437380718</v>
+        <v>0.09248147250265326</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.7997676818999082</v>
       </c>
       <c r="G18">
-        <v>0.0007273223957093127</v>
+        <v>0.2251147250033299</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1963568526700357</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1613506398563995</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1254244366515422</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4623580232644855</v>
       </c>
       <c r="M18">
-        <v>2.042697126493835</v>
+        <v>0.7401462273269956</v>
       </c>
       <c r="N18">
-        <v>1.673776363218337</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.838826311151621</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.71342294156625</v>
+        <v>3.646154751324559</v>
       </c>
       <c r="C19">
-        <v>1.947999859127719</v>
+        <v>0.5177315402282829</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1494999392476473</v>
+        <v>0.09256681796808586</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>0.7970487203581911</v>
       </c>
       <c r="G19">
-        <v>0.0007284265600313921</v>
+        <v>0.2242905936282469</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.196475905382691</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1622251913865966</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1245209811373229</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4592444028985625</v>
       </c>
       <c r="M19">
-        <v>2.021813792007407</v>
+        <v>0.7338657971075904</v>
       </c>
       <c r="N19">
-        <v>1.668323116425171</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.8372992916184927</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.025551695456556</v>
+        <v>3.787354600978801</v>
       </c>
       <c r="C20">
-        <v>2.04037631984022</v>
+        <v>0.5295255629755786</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1564241226134442</v>
+        <v>0.0921929397943515</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.8094244130959538</v>
       </c>
       <c r="G20">
-        <v>0.0007234527205675596</v>
+        <v>0.228073454428511</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1959831103283207</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1583524717187732</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1285874631820292</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4732793674139941</v>
       </c>
       <c r="M20">
-        <v>2.1164161047313</v>
+        <v>0.7621418643356748</v>
       </c>
       <c r="N20">
-        <v>1.693339343734948</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.8444176773847119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.113886018379219</v>
+        <v>4.262591406873298</v>
       </c>
       <c r="C21">
-        <v>2.363153903951854</v>
+        <v>0.5693015496952682</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1806661304530763</v>
+        <v>0.0911187176653776</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.8535531015826336</v>
       </c>
       <c r="G21">
-        <v>0.0007066060168317012</v>
+        <v>0.2421411941816984</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1951055607627552</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1464792148476501</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1422678659408589</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5208645877962397</v>
       </c>
       <c r="M21">
-        <v>2.446677935437052</v>
+        <v>0.8574078549593125</v>
       </c>
       <c r="N21">
-        <v>1.786691065728434</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.8728325635846801</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.861220749603206</v>
+        <v>4.573956363514355</v>
       </c>
       <c r="C22">
-        <v>2.585455748786842</v>
+        <v>0.5954220193557092</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1973970225305095</v>
+        <v>0.09055689738280748</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.8844146135458288</v>
       </c>
       <c r="G22">
-        <v>0.0006954280035640234</v>
+        <v>0.2524224168173177</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1951452925421435</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1396162866595745</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1512257250716758</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5523115394458671</v>
       </c>
       <c r="M22">
-        <v>2.673821474793243</v>
+        <v>0.9198996004767679</v>
       </c>
       <c r="N22">
-        <v>1.855982387928719</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.8949848405568588</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.458585520037047</v>
+        <v>4.407694164958627</v>
       </c>
       <c r="C23">
-        <v>2.465618489840324</v>
+        <v>0.5814687660169682</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1883747760631564</v>
+        <v>0.09084361324734225</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.8677502667860608</v>
       </c>
       <c r="G23">
-        <v>0.0007014140969882429</v>
+        <v>0.2468306780958613</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1950657655672003</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1431938878114689</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1464429440165418</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5354941400663051</v>
       </c>
       <c r="M23">
-        <v>2.551408847953255</v>
+        <v>0.8865232476270535</v>
       </c>
       <c r="N23">
-        <v>1.818145146768103</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.8828188520592875</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.008276698029078</v>
+        <v>3.779597858326042</v>
       </c>
       <c r="C24">
-        <v>2.035261505893459</v>
+        <v>0.5288773602094921</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1560405591649356</v>
+        <v>0.09221279833822393</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>0.8087355137263756</v>
       </c>
       <c r="G24">
-        <v>0.0007237262181137291</v>
+        <v>0.2278607946500628</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.196007326750852</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1585609790386435</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1283640946621674</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4725070843106352</v>
       </c>
       <c r="M24">
-        <v>2.11117892447372</v>
+        <v>0.7605881755230186</v>
       </c>
       <c r="N24">
-        <v>1.6919336232028</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.8440104120603849</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.559600289433149</v>
+        <v>3.104418376883871</v>
       </c>
       <c r="C25">
-        <v>1.607192037251309</v>
+        <v>0.4726018501290241</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1240217609592165</v>
+        <v>0.09426238717567692</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.7529829189096162</v>
       </c>
       <c r="G25">
-        <v>0.0007474744530416906</v>
+        <v>0.2115904203637271</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1994452055202132</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1786812886791456</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1089115925083419</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4058850775237346</v>
       </c>
       <c r="M25">
-        <v>1.672554346324659</v>
+        <v>0.6255162394939617</v>
       </c>
       <c r="N25">
-        <v>1.583264618680317</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.8160755440830059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.608182610180393</v>
+        <v>1.003893904969004</v>
       </c>
       <c r="C2">
-        <v>0.4314643799291531</v>
+        <v>0.3801705754779334</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09623366354855811</v>
+        <v>0.2848823815215447</v>
       </c>
       <c r="F2">
-        <v>0.7179263750312757</v>
+        <v>1.569863645773403</v>
       </c>
       <c r="G2">
-        <v>0.2027248849531347</v>
+        <v>0.4109121304418508</v>
       </c>
       <c r="H2">
-        <v>0.2038440270421802</v>
+        <v>0.5802671699172706</v>
       </c>
       <c r="I2">
-        <v>0.1962318638611062</v>
+        <v>0.6098850551920094</v>
       </c>
       <c r="J2">
-        <v>0.09460265421802205</v>
+        <v>0.04392632853183187</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3577803729108666</v>
+        <v>0.5221184818567934</v>
       </c>
       <c r="M2">
-        <v>0.5264822930016493</v>
+        <v>0.3101652500701704</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8059916312506772</v>
+        <v>1.930216354138139</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.271944887525535</v>
+        <v>0.8957952509933307</v>
       </c>
       <c r="C3">
-        <v>0.4037305217367901</v>
+        <v>0.3712138418170952</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09784370600938352</v>
+        <v>0.2869908685361739</v>
       </c>
       <c r="F3">
-        <v>0.6975350036637451</v>
+        <v>1.578743995872692</v>
       </c>
       <c r="G3">
-        <v>0.19843272313949</v>
+        <v>0.4154041102034753</v>
       </c>
       <c r="H3">
-        <v>0.2078905717245974</v>
+        <v>0.5863010352372555</v>
       </c>
       <c r="I3">
-        <v>0.2096879995780494</v>
+        <v>0.6199450980176167</v>
       </c>
       <c r="J3">
-        <v>0.08490145814529626</v>
+        <v>0.04068430197565931</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3256862032779253</v>
+        <v>0.5152224545495585</v>
       </c>
       <c r="M3">
-        <v>0.4595181948827332</v>
+        <v>0.2898550218144607</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8050087340410812</v>
+        <v>1.952119864615085</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.065381210035866</v>
+        <v>0.8292529174645438</v>
       </c>
       <c r="C4">
-        <v>0.3867618047925561</v>
+        <v>0.3657349242427159</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09896302105282118</v>
+        <v>0.2883831781299016</v>
       </c>
       <c r="F4">
-        <v>0.6865600034469708</v>
+        <v>1.585106861799048</v>
       </c>
       <c r="G4">
-        <v>0.1965736200134316</v>
+        <v>0.4185275613623958</v>
       </c>
       <c r="H4">
-        <v>0.2108698498304875</v>
+        <v>0.5903062601096636</v>
       </c>
       <c r="I4">
-        <v>0.2186754302777096</v>
+        <v>0.6265200045280501</v>
       </c>
       <c r="J4">
-        <v>0.07893926161938225</v>
+        <v>0.03868467560329236</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3062045107982527</v>
+        <v>0.5111518549782375</v>
       </c>
       <c r="M4">
-        <v>0.4184446503036412</v>
+        <v>0.2774061664784071</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8070778596049308</v>
+        <v>1.966963508082799</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.981158015862036</v>
+        <v>0.8020958518027328</v>
       </c>
       <c r="C5">
-        <v>0.3798605201730112</v>
+        <v>0.3635076344097143</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0994513903785883</v>
+        <v>0.2889751554908155</v>
       </c>
       <c r="F5">
-        <v>0.6824599573001819</v>
+        <v>1.587928760011735</v>
       </c>
       <c r="G5">
-        <v>0.1960013031195658</v>
+        <v>0.4198921134052682</v>
       </c>
       <c r="H5">
-        <v>0.2122039461602583</v>
+        <v>0.5920139720025759</v>
       </c>
       <c r="I5">
-        <v>0.2225138106441982</v>
+        <v>0.6292993353251788</v>
       </c>
       <c r="J5">
-        <v>0.07650773160483482</v>
+        <v>0.03786760143702139</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2983184826347269</v>
+        <v>0.5095344125854808</v>
       </c>
       <c r="M5">
-        <v>0.4017133761895266</v>
+        <v>0.2723390213553074</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8085628832877916</v>
+        <v>1.973362841341554</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.96716947317941</v>
+        <v>0.7975840548181736</v>
       </c>
       <c r="C6">
-        <v>0.3787153479620713</v>
+        <v>0.3631381288480213</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09953441272377184</v>
+        <v>0.289074939680285</v>
       </c>
       <c r="F6">
-        <v>0.6818011749728043</v>
+        <v>1.588411166075147</v>
       </c>
       <c r="G6">
-        <v>0.19591717879063</v>
+        <v>0.420124231448284</v>
       </c>
       <c r="H6">
-        <v>0.2124325961452271</v>
+        <v>0.5923020996153809</v>
       </c>
       <c r="I6">
-        <v>0.2231616126855158</v>
+        <v>0.6297668787526121</v>
       </c>
       <c r="J6">
-        <v>0.07610385072538151</v>
+        <v>0.03773179503234303</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.297012111802502</v>
+        <v>0.50926834215349</v>
       </c>
       <c r="M6">
-        <v>0.3989354374654184</v>
+        <v>0.2714979919571903</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8088473767713538</v>
+        <v>1.974446601745811</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.064245559758376</v>
+        <v>0.8288868291306812</v>
       </c>
       <c r="C7">
-        <v>0.3866686784338214</v>
+        <v>0.3657048639858544</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0989694776604999</v>
+        <v>0.2883910620929235</v>
       </c>
       <c r="F7">
-        <v>0.6865032221086196</v>
+        <v>1.585143991676553</v>
       </c>
       <c r="G7">
-        <v>0.1965651641510391</v>
+        <v>0.4185455930182727</v>
       </c>
       <c r="H7">
-        <v>0.210887361622504</v>
+        <v>0.5903289849961553</v>
       </c>
       <c r="I7">
-        <v>0.2187264920232916</v>
+        <v>0.6265570827493363</v>
       </c>
       <c r="J7">
-        <v>0.07890647739679935</v>
+        <v>0.03867366513092207</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3060979472533631</v>
+        <v>0.5111298738209911</v>
       </c>
       <c r="M7">
-        <v>0.4182189854180223</v>
+        <v>0.2773378049022455</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8070953273590504</v>
+        <v>1.967048393266566</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.49225948996218</v>
+        <v>0.9666578271821891</v>
       </c>
       <c r="C8">
-        <v>0.421888360417455</v>
+        <v>0.3770781715373062</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09676128018599783</v>
+        <v>0.285589133340137</v>
       </c>
       <c r="F8">
-        <v>0.7105646904445209</v>
+        <v>1.572736703735877</v>
       </c>
       <c r="G8">
-        <v>0.2010777188063528</v>
+        <v>0.4123850439541386</v>
       </c>
       <c r="H8">
-        <v>0.2051339118641735</v>
+        <v>0.5822853036974394</v>
       </c>
       <c r="I8">
-        <v>0.2007170370103406</v>
+        <v>0.6132711078837794</v>
       </c>
       <c r="J8">
-        <v>0.09125855229816437</v>
+        <v>0.04281037967830059</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3466656040010179</v>
+        <v>0.5197069100622258</v>
       </c>
       <c r="M8">
-        <v>0.5033815801811627</v>
+        <v>0.3031580147084796</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8050794312119791</v>
+        <v>1.937479010844541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.331644861531345</v>
+        <v>1.235405829526428</v>
       </c>
       <c r="C9">
-        <v>0.4915063128142094</v>
+        <v>0.399534705045653</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09349822301761535</v>
+        <v>0.2808681208265753</v>
       </c>
       <c r="F9">
-        <v>0.7707805108828367</v>
+        <v>1.55562644898297</v>
       </c>
       <c r="G9">
-        <v>0.2165558493693212</v>
+        <v>0.403210164803923</v>
       </c>
       <c r="H9">
-        <v>0.1979832043696206</v>
+        <v>0.5688947882055118</v>
       </c>
       <c r="I9">
-        <v>0.1714586133162541</v>
+        <v>0.5903784301529491</v>
       </c>
       <c r="J9">
-        <v>0.1154602842605996</v>
+        <v>0.05084893549559411</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.428167543057171</v>
+        <v>0.5378158333684127</v>
       </c>
       <c r="M9">
-        <v>0.6709349872125472</v>
+        <v>0.3539483421882892</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8237609844047995</v>
+        <v>1.890574734253647</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.949840253983723</v>
+        <v>1.431904927450887</v>
       </c>
       <c r="C10">
-        <v>0.5431116961899534</v>
+        <v>0.4161160228802316</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0917946067521509</v>
+        <v>0.2778690273095989</v>
       </c>
       <c r="F10">
-        <v>0.8240917399516832</v>
+        <v>1.547455612898119</v>
       </c>
       <c r="G10">
-        <v>0.2326554918644987</v>
+        <v>0.3982508064128254</v>
       </c>
       <c r="H10">
-        <v>0.195550448111284</v>
+        <v>0.5605089222095856</v>
       </c>
       <c r="I10">
-        <v>0.1540956054785276</v>
+        <v>0.5754900861810714</v>
       </c>
       <c r="J10">
-        <v>0.1332659316389808</v>
+        <v>0.05670784268330209</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.489490189824096</v>
+        <v>0.5518967115801985</v>
       </c>
       <c r="M10">
-        <v>0.79469731884965</v>
+        <v>0.3913429809836799</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8533740384020376</v>
+        <v>1.862889483020282</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.231755159854288</v>
+        <v>1.52107468427846</v>
       </c>
       <c r="C11">
-        <v>0.5667171396449362</v>
+        <v>0.4236749972669998</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09118024977932393</v>
+        <v>0.2766061400218902</v>
       </c>
       <c r="F11">
-        <v>0.8505784284327689</v>
+        <v>1.544693658175476</v>
       </c>
       <c r="G11">
-        <v>0.2411678596619282</v>
+        <v>0.3963836083495309</v>
       </c>
       <c r="H11">
-        <v>0.1951273895245222</v>
+        <v>0.5570091600199376</v>
       </c>
       <c r="I11">
-        <v>0.1471973362848189</v>
+        <v>0.5691370719433273</v>
       </c>
       <c r="J11">
-        <v>0.1413804900213833</v>
+        <v>0.05936257184144722</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5177614678824369</v>
+        <v>0.5584690658169222</v>
       </c>
       <c r="M11">
-        <v>0.8512220868718998</v>
+        <v>0.4083686354342149</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8707874470942301</v>
+        <v>1.851770239110067</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.338639716245723</v>
+        <v>1.554807716247296</v>
       </c>
       <c r="C12">
-        <v>0.5756771571630281</v>
+        <v>0.4265394732096865</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0909715904944548</v>
+        <v>0.2761424659535923</v>
       </c>
       <c r="F12">
-        <v>0.8609530341950773</v>
+        <v>1.543785058128663</v>
       </c>
       <c r="G12">
-        <v>0.2445765637534123</v>
+        <v>0.395732631166382</v>
       </c>
       <c r="H12">
-        <v>0.1950718417288257</v>
+        <v>0.5557291837157976</v>
       </c>
       <c r="I12">
-        <v>0.1447381843640532</v>
+        <v>0.5667917948451819</v>
       </c>
       <c r="J12">
-        <v>0.1444561363813577</v>
+        <v>0.06036628796277199</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5285263101340121</v>
+        <v>0.5609816430900878</v>
       </c>
       <c r="M12">
-        <v>0.8726656512914843</v>
+        <v>0.4148175574747981</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8779921447975596</v>
+        <v>1.847772111387854</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.31561395914963</v>
+        <v>1.547544233986343</v>
       </c>
       <c r="C13">
-        <v>0.5737464749905712</v>
+        <v>0.4259224695856574</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09101544766019565</v>
+        <v>0.2762416796386251</v>
       </c>
       <c r="F13">
-        <v>0.8587029619780111</v>
+        <v>1.543974635884609</v>
       </c>
       <c r="G13">
-        <v>0.2438339607970406</v>
+        <v>0.3958703333449662</v>
       </c>
       <c r="H13">
-        <v>0.1950790448026822</v>
+        <v>0.5560028342927126</v>
       </c>
       <c r="I13">
-        <v>0.1452608455512596</v>
+        <v>0.5672942010070834</v>
       </c>
       <c r="J13">
-        <v>0.1437936024757249</v>
+        <v>0.06015019061175053</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5262051934274865</v>
+        <v>0.560439461118861</v>
       </c>
       <c r="M13">
-        <v>0.8680455580132218</v>
+        <v>0.4134285989985784</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8764126004038815</v>
+        <v>1.848623722951686</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.24054584353911</v>
+        <v>1.523850607320412</v>
       </c>
       <c r="C14">
-        <v>0.567453846962394</v>
+        <v>0.4239106196463354</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09116259732192766</v>
+        <v>0.2765677017631454</v>
       </c>
       <c r="F14">
-        <v>0.8514249073723192</v>
+        <v>1.544616155772417</v>
       </c>
       <c r="G14">
-        <v>0.2414444975694252</v>
+        <v>0.3963289269335988</v>
       </c>
       <c r="H14">
-        <v>0.195120684271636</v>
+        <v>0.5569029475114888</v>
       </c>
       <c r="I14">
-        <v>0.1469918976166511</v>
+        <v>0.5689429120208178</v>
       </c>
       <c r="J14">
-        <v>0.1416334640385983</v>
+        <v>0.05944518002192467</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5186458822551003</v>
+        <v>0.5586753020011201</v>
       </c>
       <c r="M14">
-        <v>0.8529854436862934</v>
+        <v>0.4088991609924193</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8713676837261772</v>
+        <v>1.851437049884254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.194582237475288</v>
+        <v>1.509333134244287</v>
       </c>
       <c r="C15">
-        <v>0.5636022615048546</v>
+        <v>0.4226785638443857</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09125588134454965</v>
+        <v>0.2767692942072095</v>
       </c>
       <c r="F15">
-        <v>0.8470124901631522</v>
+        <v>1.545026983641719</v>
       </c>
       <c r="G15">
-        <v>0.2400054494083008</v>
+        <v>0.3966171385322568</v>
       </c>
       <c r="H15">
-        <v>0.1951600144049408</v>
+        <v>0.5574601935270564</v>
       </c>
       <c r="I15">
-        <v>0.1480724355027707</v>
+        <v>0.5699606735372349</v>
       </c>
       <c r="J15">
-        <v>0.1403107091269362</v>
+        <v>0.05901313416038789</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5140234443531284</v>
+        <v>0.5575977922717357</v>
       </c>
       <c r="M15">
-        <v>0.8437659526183694</v>
+        <v>0.4061249550004717</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8683583927177381</v>
+        <v>1.853187977886947</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.93143291002167</v>
+        <v>1.426072887682153</v>
       </c>
       <c r="C16">
-        <v>0.5415718452913154</v>
+        <v>0.4156223275339244</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09183806333337685</v>
+        <v>0.2779535981799679</v>
       </c>
       <c r="F16">
-        <v>0.8224077053420302</v>
+        <v>1.547655327181872</v>
       </c>
       <c r="G16">
-        <v>0.2321243107291266</v>
+        <v>0.3983806716826948</v>
       </c>
       <c r="H16">
-        <v>0.1955923858416071</v>
+        <v>0.5607439795353031</v>
       </c>
       <c r="I16">
-        <v>0.154567328083882</v>
+        <v>0.5759137267693468</v>
       </c>
       <c r="J16">
-        <v>0.1327359826368024</v>
+        <v>0.0565341331372835</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4876505801574211</v>
+        <v>0.5514705314376442</v>
       </c>
       <c r="M16">
-        <v>0.791008362455706</v>
+        <v>0.3902305723407906</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.852319034239585</v>
+        <v>1.863645864907426</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.77019760515401</v>
+        <v>1.374937864656431</v>
       </c>
       <c r="C17">
-        <v>0.5280918618215651</v>
+        <v>0.4112974861371015</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.092236969254607</v>
+        <v>0.2787060842290963</v>
       </c>
       <c r="F17">
-        <v>0.8079020459886124</v>
+        <v>1.549512304535412</v>
       </c>
       <c r="G17">
-        <v>0.2276038262599727</v>
+        <v>0.3995622586265881</v>
       </c>
       <c r="H17">
-        <v>0.1960371149081013</v>
+        <v>0.5628391644579267</v>
       </c>
       <c r="I17">
-        <v>0.158814319755793</v>
+        <v>0.5796733227489135</v>
       </c>
       <c r="J17">
-        <v>0.1280933951024892</v>
+        <v>0.0550106099669847</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4715713658287939</v>
+        <v>0.5477542369755497</v>
       </c>
       <c r="M17">
-        <v>0.7587053438078328</v>
+        <v>0.3804833279881592</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8435193615392649</v>
+        <v>1.870439485268463</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.677522807069749</v>
+        <v>1.345505898918134</v>
       </c>
       <c r="C18">
-        <v>0.5203505984953551</v>
+        <v>0.4088114773245195</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09248147250265326</v>
+        <v>0.2791484417568011</v>
       </c>
       <c r="F18">
-        <v>0.7997676818999082</v>
+        <v>1.550670280137219</v>
       </c>
       <c r="G18">
-        <v>0.2251147250033299</v>
+        <v>0.4002784651516649</v>
       </c>
       <c r="H18">
-        <v>0.1963568526700357</v>
+        <v>0.5640739091079112</v>
       </c>
       <c r="I18">
-        <v>0.1613506398563995</v>
+        <v>0.5818752469680284</v>
       </c>
       <c r="J18">
-        <v>0.1254244366515422</v>
+        <v>0.05413333337814663</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4623580232644855</v>
+        <v>0.5456324450572509</v>
       </c>
       <c r="M18">
-        <v>0.7401462273269956</v>
+        <v>0.374878374918211</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.838826311151621</v>
+        <v>1.874485798544086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.646154751324559</v>
+        <v>1.335537294732603</v>
       </c>
       <c r="C19">
-        <v>0.5177315402282829</v>
+        <v>0.4079700271755371</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09256681796808586</v>
+        <v>0.2792998570986569</v>
       </c>
       <c r="F19">
-        <v>0.7970487203581911</v>
+        <v>1.551077790751854</v>
       </c>
       <c r="G19">
-        <v>0.2242905936282469</v>
+        <v>0.4005272391871486</v>
       </c>
       <c r="H19">
-        <v>0.196475905382691</v>
+        <v>0.5644970645010687</v>
       </c>
       <c r="I19">
-        <v>0.1622251913865966</v>
+        <v>0.5826275621941548</v>
       </c>
       <c r="J19">
-        <v>0.1245209811373229</v>
+        <v>0.05383613501822992</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4592444028985625</v>
+        <v>0.5449167501042069</v>
       </c>
       <c r="M19">
-        <v>0.7338657971075904</v>
+        <v>0.3729808883997308</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8372992916184927</v>
+        <v>1.875879637988305</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787354600978801</v>
+        <v>1.380383407759552</v>
       </c>
       <c r="C20">
-        <v>0.5295255629755786</v>
+        <v>0.4117577168267132</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0921929397943515</v>
+        <v>0.2786249928927944</v>
       </c>
       <c r="F20">
-        <v>0.8094244130959538</v>
+        <v>1.549305322959952</v>
       </c>
       <c r="G20">
-        <v>0.228073454428511</v>
+        <v>0.3994326885806174</v>
       </c>
       <c r="H20">
-        <v>0.1959831103283207</v>
+        <v>0.5626130597433203</v>
       </c>
       <c r="I20">
-        <v>0.1583524717187732</v>
+        <v>0.5792690180239131</v>
       </c>
       <c r="J20">
-        <v>0.1285874631820292</v>
+        <v>0.05517289412749449</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4732793674139941</v>
+        <v>0.5481482173242256</v>
       </c>
       <c r="M20">
-        <v>0.7621418643356748</v>
+        <v>0.381520796593172</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8444176773847119</v>
+        <v>1.86970192434913</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.262591406873298</v>
+        <v>1.530810929511006</v>
       </c>
       <c r="C21">
-        <v>0.5693015496952682</v>
+        <v>0.4245014949255221</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0911187176653776</v>
+        <v>0.2764715464070591</v>
       </c>
       <c r="F21">
-        <v>0.8535531015826336</v>
+        <v>1.544424000052004</v>
       </c>
       <c r="G21">
-        <v>0.2421411941816984</v>
+        <v>0.396192703216677</v>
       </c>
       <c r="H21">
-        <v>0.1951055607627552</v>
+        <v>0.5566373327267442</v>
       </c>
       <c r="I21">
-        <v>0.1464792148476501</v>
+        <v>0.5684570035816936</v>
       </c>
       <c r="J21">
-        <v>0.1422678659408589</v>
+        <v>0.05965230186673409</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5208645877962397</v>
+        <v>0.5591928350307569</v>
       </c>
       <c r="M21">
-        <v>0.8574078549593125</v>
+        <v>0.4102295246531042</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8728325635846801</v>
+        <v>1.850604937538947</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.573956363514355</v>
+        <v>1.628927049810727</v>
       </c>
       <c r="C22">
-        <v>0.5954220193557092</v>
+        <v>0.4328421616873186</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09055689738280748</v>
+        <v>0.2751489625164858</v>
       </c>
       <c r="F22">
-        <v>0.8844146135458288</v>
+        <v>1.542033999718981</v>
       </c>
       <c r="G22">
-        <v>0.2524224168173177</v>
+        <v>0.3944022024190517</v>
       </c>
       <c r="H22">
-        <v>0.1951452925421435</v>
+        <v>0.5529959418515702</v>
       </c>
       <c r="I22">
-        <v>0.1396162866595745</v>
+        <v>0.5617432518383421</v>
       </c>
       <c r="J22">
-        <v>0.1512257250716758</v>
+        <v>0.06257066219112772</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5523115394458671</v>
+        <v>0.5665495710540682</v>
       </c>
       <c r="M22">
-        <v>0.9198996004767679</v>
+        <v>0.4290019103017357</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8949848405568588</v>
+        <v>1.83936268074109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.407694164958627</v>
+        <v>1.576579367002296</v>
       </c>
       <c r="C23">
-        <v>0.5814687660169682</v>
+        <v>0.4283895871903383</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09084361324734225</v>
+        <v>0.2758470993059099</v>
       </c>
       <c r="F23">
-        <v>0.8677502667860608</v>
+        <v>1.543236379405869</v>
       </c>
       <c r="G23">
-        <v>0.2468306780958613</v>
+        <v>0.3953278467214574</v>
       </c>
       <c r="H23">
-        <v>0.1950657655672003</v>
+        <v>0.5549152531180965</v>
       </c>
       <c r="I23">
-        <v>0.1431938878114689</v>
+        <v>0.5652942154371008</v>
       </c>
       <c r="J23">
-        <v>0.1464429440165418</v>
+        <v>0.06101393910984143</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5354941400663051</v>
+        <v>0.5626105510266797</v>
       </c>
       <c r="M23">
-        <v>0.8865232476270535</v>
+        <v>0.4189820003809785</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8828188520592875</v>
+        <v>1.845249410741147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.779597858326042</v>
+        <v>1.377921582715771</v>
       </c>
       <c r="C24">
-        <v>0.5288773602094921</v>
+        <v>0.4115496452663194</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09221279833822393</v>
+        <v>0.2786616239345214</v>
       </c>
       <c r="F24">
-        <v>0.8087355137263756</v>
+        <v>1.549398617819236</v>
       </c>
       <c r="G24">
-        <v>0.2278607946500628</v>
+        <v>0.3994911522820743</v>
       </c>
       <c r="H24">
-        <v>0.196007326750852</v>
+        <v>0.5627151876300402</v>
       </c>
       <c r="I24">
-        <v>0.1585609790386435</v>
+        <v>0.5794516780984331</v>
       </c>
       <c r="J24">
-        <v>0.1283640946621674</v>
+        <v>0.05509952976115784</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4725070843106352</v>
+        <v>0.547970052831019</v>
       </c>
       <c r="M24">
-        <v>0.7605881755230186</v>
+        <v>0.3810517605319177</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8440104120603849</v>
+        <v>1.870034937804064</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.104418376883871</v>
+        <v>1.162863196621402</v>
       </c>
       <c r="C25">
-        <v>0.4726018501290241</v>
+        <v>0.393444337661947</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09426238717567692</v>
+        <v>0.2820626872505585</v>
       </c>
       <c r="F25">
-        <v>0.7529829189096162</v>
+        <v>1.559482399571706</v>
       </c>
       <c r="G25">
-        <v>0.2115904203637271</v>
+        <v>0.4053800843863655</v>
       </c>
       <c r="H25">
-        <v>0.1994452055202132</v>
+        <v>0.5722622168284204</v>
       </c>
       <c r="I25">
-        <v>0.1786812886791456</v>
+        <v>0.5962326940192924</v>
       </c>
       <c r="J25">
-        <v>0.1089115925083419</v>
+        <v>0.04868239270247443</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4058850775237346</v>
+        <v>0.5327798668597836</v>
       </c>
       <c r="M25">
-        <v>0.6255162394939617</v>
+        <v>0.3401931438713603</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8160755440830059</v>
+        <v>1.902075193318709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.003893904969004</v>
+        <v>2.60818261018045</v>
       </c>
       <c r="C2">
-        <v>0.3801705754779334</v>
+        <v>0.4314643799294089</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2848823815215447</v>
+        <v>0.09623366354855634</v>
       </c>
       <c r="F2">
-        <v>1.569863645773403</v>
+        <v>0.7179263750312757</v>
       </c>
       <c r="G2">
-        <v>0.4109121304418508</v>
+        <v>0.2027248849531915</v>
       </c>
       <c r="H2">
-        <v>0.5802671699172706</v>
+        <v>0.2038440270420736</v>
       </c>
       <c r="I2">
-        <v>0.6098850551920094</v>
+        <v>0.1962318638610938</v>
       </c>
       <c r="J2">
-        <v>0.04392632853183187</v>
+        <v>0.09460265421783021</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5221184818567934</v>
+        <v>0.3577803729108524</v>
       </c>
       <c r="M2">
-        <v>0.3101652500701704</v>
+        <v>0.5264822930016493</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.930216354138139</v>
+        <v>0.8059916312507482</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8957952509933307</v>
+        <v>2.271944887525535</v>
       </c>
       <c r="C3">
-        <v>0.3712138418170952</v>
+        <v>0.4037305217365201</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2869908685361739</v>
+        <v>0.09784370600937997</v>
       </c>
       <c r="F3">
-        <v>1.578743995872692</v>
+        <v>0.6975350036637593</v>
       </c>
       <c r="G3">
-        <v>0.4154041102034753</v>
+        <v>0.1984327231395113</v>
       </c>
       <c r="H3">
-        <v>0.5863010352372555</v>
+        <v>0.2078905717245974</v>
       </c>
       <c r="I3">
-        <v>0.6199450980176167</v>
+        <v>0.2096879995780512</v>
       </c>
       <c r="J3">
-        <v>0.04068430197565931</v>
+        <v>0.08490145814528205</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5152224545495585</v>
+        <v>0.3256862032779253</v>
       </c>
       <c r="M3">
-        <v>0.2898550218144607</v>
+        <v>0.459518194882726</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.952119864615085</v>
+        <v>0.8050087340410812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8292529174645438</v>
+        <v>2.06538121003598</v>
       </c>
       <c r="C4">
-        <v>0.3657349242427159</v>
+        <v>0.3867618047930108</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2883831781299016</v>
+        <v>0.09896302105283716</v>
       </c>
       <c r="F4">
-        <v>1.585106861799048</v>
+        <v>0.6865600034469708</v>
       </c>
       <c r="G4">
-        <v>0.4185275613623958</v>
+        <v>0.1965736200133676</v>
       </c>
       <c r="H4">
-        <v>0.5903062601096636</v>
+        <v>0.2108698498306012</v>
       </c>
       <c r="I4">
-        <v>0.6265200045280501</v>
+        <v>0.2186754302777079</v>
       </c>
       <c r="J4">
-        <v>0.03868467560329236</v>
+        <v>0.07893926161938225</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5111518549782375</v>
+        <v>0.3062045107981959</v>
       </c>
       <c r="M4">
-        <v>0.2774061664784071</v>
+        <v>0.4184446503036554</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.966963508082799</v>
+        <v>0.8070778596049308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8020958518027328</v>
+        <v>1.981158015861922</v>
       </c>
       <c r="C5">
-        <v>0.3635076344097143</v>
+        <v>0.3798605201727838</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2889751554908155</v>
+        <v>0.09945139037853679</v>
       </c>
       <c r="F5">
-        <v>1.587928760011735</v>
+        <v>0.6824599573001606</v>
       </c>
       <c r="G5">
-        <v>0.4198921134052682</v>
+        <v>0.1960013031195444</v>
       </c>
       <c r="H5">
-        <v>0.5920139720025759</v>
+        <v>0.2122039461602654</v>
       </c>
       <c r="I5">
-        <v>0.6292993353251788</v>
+        <v>0.2225138106441928</v>
       </c>
       <c r="J5">
-        <v>0.03786760143702139</v>
+        <v>0.0765077316048135</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5095344125854808</v>
+        <v>0.2983184826347696</v>
       </c>
       <c r="M5">
-        <v>0.2723390213553074</v>
+        <v>0.4017133761895195</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.973362841341554</v>
+        <v>0.8085628832877774</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7975840548181736</v>
+        <v>1.967169473179524</v>
       </c>
       <c r="C6">
-        <v>0.3631381288480213</v>
+        <v>0.3787153479622702</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.289074939680285</v>
+        <v>0.09953441272380559</v>
       </c>
       <c r="F6">
-        <v>1.588411166075147</v>
+        <v>0.6818011749727972</v>
       </c>
       <c r="G6">
-        <v>0.420124231448284</v>
+        <v>0.195917178790701</v>
       </c>
       <c r="H6">
-        <v>0.5923020996153809</v>
+        <v>0.2124325961452271</v>
       </c>
       <c r="I6">
-        <v>0.6297668787526121</v>
+        <v>0.2231616126855123</v>
       </c>
       <c r="J6">
-        <v>0.03773179503234303</v>
+        <v>0.07610385072544545</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.50926834215349</v>
+        <v>0.297012111802573</v>
       </c>
       <c r="M6">
-        <v>0.2714979919571903</v>
+        <v>0.3989354374654042</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.974446601745811</v>
+        <v>0.8088473767712827</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8288868291306812</v>
+        <v>2.064245559758433</v>
       </c>
       <c r="C7">
-        <v>0.3657048639858544</v>
+        <v>0.3866686784340345</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2883910620929235</v>
+        <v>0.09896947766053721</v>
       </c>
       <c r="F7">
-        <v>1.585143991676553</v>
+        <v>0.6865032221086267</v>
       </c>
       <c r="G7">
-        <v>0.4185455930182727</v>
+        <v>0.1965651641510533</v>
       </c>
       <c r="H7">
-        <v>0.5903289849961553</v>
+        <v>0.2108873616226248</v>
       </c>
       <c r="I7">
-        <v>0.6265570827493363</v>
+        <v>0.2187264920232881</v>
       </c>
       <c r="J7">
-        <v>0.03867366513092207</v>
+        <v>0.07890647739665724</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5111298738209911</v>
+        <v>0.3060979472532068</v>
       </c>
       <c r="M7">
-        <v>0.2773378049022455</v>
+        <v>0.4182189854180365</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.967048393266566</v>
+        <v>0.8070953273589936</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9666578271821891</v>
+        <v>2.49225948996218</v>
       </c>
       <c r="C8">
-        <v>0.3770781715373062</v>
+        <v>0.421888360417455</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.285589133340137</v>
+        <v>0.09676128018600139</v>
       </c>
       <c r="F8">
-        <v>1.572736703735877</v>
+        <v>0.7105646904445138</v>
       </c>
       <c r="G8">
-        <v>0.4123850439541386</v>
+        <v>0.2010777188063955</v>
       </c>
       <c r="H8">
-        <v>0.5822853036974394</v>
+        <v>0.2051339118642872</v>
       </c>
       <c r="I8">
-        <v>0.6132711078837794</v>
+        <v>0.2007170370103335</v>
       </c>
       <c r="J8">
-        <v>0.04281037967830059</v>
+        <v>0.09125855229804358</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5197069100622258</v>
+        <v>0.346665604000961</v>
       </c>
       <c r="M8">
-        <v>0.3031580147084796</v>
+        <v>0.5033815801811556</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.937479010844541</v>
+        <v>0.8050794312119649</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.235405829526428</v>
+        <v>3.331644861531402</v>
       </c>
       <c r="C9">
-        <v>0.399534705045653</v>
+        <v>0.4915063128141242</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2808681208265753</v>
+        <v>0.09349822301763488</v>
       </c>
       <c r="F9">
-        <v>1.55562644898297</v>
+        <v>0.7707805108828367</v>
       </c>
       <c r="G9">
-        <v>0.403210164803923</v>
+        <v>0.2165558493693709</v>
       </c>
       <c r="H9">
-        <v>0.5688947882055118</v>
+        <v>0.1979832043696277</v>
       </c>
       <c r="I9">
-        <v>0.5903784301529491</v>
+        <v>0.1714586133162719</v>
       </c>
       <c r="J9">
-        <v>0.05084893549559411</v>
+        <v>0.1154602842605286</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5378158333684127</v>
+        <v>0.4281675430572136</v>
       </c>
       <c r="M9">
-        <v>0.3539483421882892</v>
+        <v>0.6709349872125614</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.890574734253647</v>
+        <v>0.8237609844048848</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.431904927450887</v>
+        <v>3.949840253983837</v>
       </c>
       <c r="C10">
-        <v>0.4161160228802316</v>
+        <v>0.5431116961899818</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2778690273095989</v>
+        <v>0.09179460675213491</v>
       </c>
       <c r="F10">
-        <v>1.547455612898119</v>
+        <v>0.8240917399516832</v>
       </c>
       <c r="G10">
-        <v>0.3982508064128254</v>
+        <v>0.2326554918644774</v>
       </c>
       <c r="H10">
-        <v>0.5605089222095856</v>
+        <v>0.1955504481112769</v>
       </c>
       <c r="I10">
-        <v>0.5754900861810714</v>
+        <v>0.1540956054785241</v>
       </c>
       <c r="J10">
-        <v>0.05670784268330209</v>
+        <v>0.133265931638995</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5518967115801985</v>
+        <v>0.489490189824167</v>
       </c>
       <c r="M10">
-        <v>0.3913429809836799</v>
+        <v>0.7946973188496358</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.862889483020282</v>
+        <v>0.8533740384019666</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.52107468427846</v>
+        <v>4.231755159854345</v>
       </c>
       <c r="C11">
-        <v>0.4236749972669998</v>
+        <v>0.566717139644652</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2766061400218902</v>
+        <v>0.0911802497793488</v>
       </c>
       <c r="F11">
-        <v>1.544693658175476</v>
+        <v>0.8505784284327973</v>
       </c>
       <c r="G11">
-        <v>0.3963836083495309</v>
+        <v>0.2411678596618785</v>
       </c>
       <c r="H11">
-        <v>0.5570091600199376</v>
+        <v>0.1951273895245222</v>
       </c>
       <c r="I11">
-        <v>0.5691370719433273</v>
+        <v>0.1471973362848225</v>
       </c>
       <c r="J11">
-        <v>0.05936257184144722</v>
+        <v>0.1413804900214899</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5584690658169222</v>
+        <v>0.5177614678825222</v>
       </c>
       <c r="M11">
-        <v>0.4083686354342149</v>
+        <v>0.8512220868718927</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.851770239110067</v>
+        <v>0.8707874470942301</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.554807716247296</v>
+        <v>4.338639716245723</v>
       </c>
       <c r="C12">
-        <v>0.4265394732096865</v>
+        <v>0.5756771571632271</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2761424659535923</v>
+        <v>0.09097159049445125</v>
       </c>
       <c r="F12">
-        <v>1.543785058128663</v>
+        <v>0.8609530341950773</v>
       </c>
       <c r="G12">
-        <v>0.395732631166382</v>
+        <v>0.2445765637533057</v>
       </c>
       <c r="H12">
-        <v>0.5557291837157976</v>
+        <v>0.1950718417289394</v>
       </c>
       <c r="I12">
-        <v>0.5667917948451819</v>
+        <v>0.1447381843640301</v>
       </c>
       <c r="J12">
-        <v>0.06036628796277199</v>
+        <v>0.1444561363813079</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5609816430900878</v>
+        <v>0.5285263101340547</v>
       </c>
       <c r="M12">
-        <v>0.4148175574747981</v>
+        <v>0.8726656512914914</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.847772111387854</v>
+        <v>0.8779921447975312</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.547544233986343</v>
+        <v>4.315613959149516</v>
       </c>
       <c r="C13">
-        <v>0.4259224695856574</v>
+        <v>0.5737464749904007</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2762416796386251</v>
+        <v>0.09101544766019209</v>
       </c>
       <c r="F13">
-        <v>1.543974635884609</v>
+        <v>0.8587029619780253</v>
       </c>
       <c r="G13">
-        <v>0.3958703333449662</v>
+        <v>0.2438339607970903</v>
       </c>
       <c r="H13">
-        <v>0.5560028342927126</v>
+        <v>0.1950790448026751</v>
       </c>
       <c r="I13">
-        <v>0.5672942010070834</v>
+        <v>0.1452608455512596</v>
       </c>
       <c r="J13">
-        <v>0.06015019061175053</v>
+        <v>0.1437936024757676</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.560439461118861</v>
+        <v>0.5262051934274865</v>
       </c>
       <c r="M13">
-        <v>0.4134285989985784</v>
+        <v>0.8680455580132573</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.848623722951686</v>
+        <v>0.8764126004038957</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.523850607320412</v>
+        <v>4.240545843539167</v>
       </c>
       <c r="C14">
-        <v>0.4239106196463354</v>
+        <v>0.5674538469623371</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2765677017631454</v>
+        <v>0.09116259732190812</v>
       </c>
       <c r="F14">
-        <v>1.544616155772417</v>
+        <v>0.8514249073723192</v>
       </c>
       <c r="G14">
-        <v>0.3963289269335988</v>
+        <v>0.2414444975694678</v>
       </c>
       <c r="H14">
-        <v>0.5569029475114888</v>
+        <v>0.1951206842716289</v>
       </c>
       <c r="I14">
-        <v>0.5689429120208178</v>
+        <v>0.1469918976166316</v>
       </c>
       <c r="J14">
-        <v>0.05944518002192467</v>
+        <v>0.1416334640386481</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5586753020011201</v>
+        <v>0.5186458822550435</v>
       </c>
       <c r="M14">
-        <v>0.4088991609924193</v>
+        <v>0.8529854436862863</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.851437049884254</v>
+        <v>0.8713676837261346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.509333134244287</v>
+        <v>4.194582237475174</v>
       </c>
       <c r="C15">
-        <v>0.4226785638443857</v>
+        <v>0.5636022615050535</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2767692942072095</v>
+        <v>0.09125588134456386</v>
       </c>
       <c r="F15">
-        <v>1.545026983641719</v>
+        <v>0.8470124901631522</v>
       </c>
       <c r="G15">
-        <v>0.3966171385322568</v>
+        <v>0.2400054494082937</v>
       </c>
       <c r="H15">
-        <v>0.5574601935270564</v>
+        <v>0.1951600144048271</v>
       </c>
       <c r="I15">
-        <v>0.5699606735372349</v>
+        <v>0.1480724355027849</v>
       </c>
       <c r="J15">
-        <v>0.05901313416038789</v>
+        <v>0.1403107091269149</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5575977922717357</v>
+        <v>0.5140234443529863</v>
       </c>
       <c r="M15">
-        <v>0.4061249550004717</v>
+        <v>0.8437659526183836</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.853187977886947</v>
+        <v>0.8683583927177239</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426072887682153</v>
+        <v>3.931432910021442</v>
       </c>
       <c r="C16">
-        <v>0.4156223275339244</v>
+        <v>0.5415718452912017</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2779535981799679</v>
+        <v>0.09183806333338751</v>
       </c>
       <c r="F16">
-        <v>1.547655327181872</v>
+        <v>0.8224077053420444</v>
       </c>
       <c r="G16">
-        <v>0.3983806716826948</v>
+        <v>0.2321243107292545</v>
       </c>
       <c r="H16">
-        <v>0.5607439795353031</v>
+        <v>0.1955923858416071</v>
       </c>
       <c r="I16">
-        <v>0.5759137267693468</v>
+        <v>0.1545673280838962</v>
       </c>
       <c r="J16">
-        <v>0.0565341331372835</v>
+        <v>0.1327359826367385</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5514705314376442</v>
+        <v>0.4876505801574496</v>
       </c>
       <c r="M16">
-        <v>0.3902305723407906</v>
+        <v>0.7910083624557132</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.863645864907426</v>
+        <v>0.8523190342395992</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.374937864656431</v>
+        <v>3.770197605154181</v>
       </c>
       <c r="C17">
-        <v>0.4112974861371015</v>
+        <v>0.5280918618216219</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2787060842290963</v>
+        <v>0.09223696925461944</v>
       </c>
       <c r="F17">
-        <v>1.549512304535412</v>
+        <v>0.8079020459886124</v>
       </c>
       <c r="G17">
-        <v>0.3995622586265881</v>
+        <v>0.2276038262599087</v>
       </c>
       <c r="H17">
-        <v>0.5628391644579267</v>
+        <v>0.1960371149080942</v>
       </c>
       <c r="I17">
-        <v>0.5796733227489135</v>
+        <v>0.1588143197557788</v>
       </c>
       <c r="J17">
-        <v>0.0550106099669847</v>
+        <v>0.1280933951025673</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5477542369755497</v>
+        <v>0.4715713658288081</v>
       </c>
       <c r="M17">
-        <v>0.3804833279881592</v>
+        <v>0.7587053438078328</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.870439485268463</v>
+        <v>0.8435193615392791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.345505898918134</v>
+        <v>3.677522807069522</v>
       </c>
       <c r="C18">
-        <v>0.4088114773245195</v>
+        <v>0.5203505984953551</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2791484417568011</v>
+        <v>0.09248147250263727</v>
       </c>
       <c r="F18">
-        <v>1.550670280137219</v>
+        <v>0.799767681899894</v>
       </c>
       <c r="G18">
-        <v>0.4002784651516649</v>
+        <v>0.2251147250033227</v>
       </c>
       <c r="H18">
-        <v>0.5640739091079112</v>
+        <v>0.1963568526700357</v>
       </c>
       <c r="I18">
-        <v>0.5818752469680284</v>
+        <v>0.1613506398564013</v>
       </c>
       <c r="J18">
-        <v>0.05413333337814663</v>
+        <v>0.1254244366515422</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5456324450572509</v>
+        <v>0.4623580232644144</v>
       </c>
       <c r="M18">
-        <v>0.374878374918211</v>
+        <v>0.7401462273269956</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.874485798544086</v>
+        <v>0.838826311151621</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.335537294732603</v>
+        <v>3.646154751324559</v>
       </c>
       <c r="C19">
-        <v>0.4079700271755371</v>
+        <v>0.5177315402285956</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2792998570986569</v>
+        <v>0.09256681796810007</v>
       </c>
       <c r="F19">
-        <v>1.551077790751854</v>
+        <v>0.7970487203581911</v>
       </c>
       <c r="G19">
-        <v>0.4005272391871486</v>
+        <v>0.2242905936282469</v>
       </c>
       <c r="H19">
-        <v>0.5644970645010687</v>
+        <v>0.196475905382691</v>
       </c>
       <c r="I19">
-        <v>0.5826275621941548</v>
+        <v>0.1622251913865824</v>
       </c>
       <c r="J19">
-        <v>0.05383613501822992</v>
+        <v>0.1245209811373016</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5449167501042069</v>
+        <v>0.4592444028986051</v>
       </c>
       <c r="M19">
-        <v>0.3729808883997308</v>
+        <v>0.7338657971075975</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.875879637988305</v>
+        <v>0.8372992916184927</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.380383407759552</v>
+        <v>3.787354600978404</v>
       </c>
       <c r="C20">
-        <v>0.4117577168267132</v>
+        <v>0.529525562975607</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2786249928927944</v>
+        <v>0.09219293979430709</v>
       </c>
       <c r="F20">
-        <v>1.549305322959952</v>
+        <v>0.8094244130959538</v>
       </c>
       <c r="G20">
-        <v>0.3994326885806174</v>
+        <v>0.2280734544284542</v>
       </c>
       <c r="H20">
-        <v>0.5626130597433203</v>
+        <v>0.1959831103283278</v>
       </c>
       <c r="I20">
-        <v>0.5792690180239131</v>
+        <v>0.1583524717187696</v>
       </c>
       <c r="J20">
-        <v>0.05517289412749449</v>
+        <v>0.1285874631821429</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5481482173242256</v>
+        <v>0.4732793674139657</v>
       </c>
       <c r="M20">
-        <v>0.381520796593172</v>
+        <v>0.7621418643356606</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.86970192434913</v>
+        <v>0.8444176773846834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.530810929511006</v>
+        <v>4.262591406873582</v>
       </c>
       <c r="C21">
-        <v>0.4245014949255221</v>
+        <v>0.5693015496952398</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2764715464070591</v>
+        <v>0.09111871766540602</v>
       </c>
       <c r="F21">
-        <v>1.544424000052004</v>
+        <v>0.8535531015826479</v>
       </c>
       <c r="G21">
-        <v>0.396192703216677</v>
+        <v>0.2421411941816984</v>
       </c>
       <c r="H21">
-        <v>0.5566373327267442</v>
+        <v>0.1951055607627552</v>
       </c>
       <c r="I21">
-        <v>0.5684570035816936</v>
+        <v>0.1464792148476519</v>
       </c>
       <c r="J21">
-        <v>0.05965230186673409</v>
+        <v>0.1422678659408518</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5591928350307569</v>
+        <v>0.5208645877962965</v>
       </c>
       <c r="M21">
-        <v>0.4102295246531042</v>
+        <v>0.8574078549593054</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.850604937538947</v>
+        <v>0.8728325635846801</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.628927049810727</v>
+        <v>4.573956363514299</v>
       </c>
       <c r="C22">
-        <v>0.4328421616873186</v>
+        <v>0.5954220193554818</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2751489625164858</v>
+        <v>0.09055689738280215</v>
       </c>
       <c r="F22">
-        <v>1.542033999718981</v>
+        <v>0.8844146135458288</v>
       </c>
       <c r="G22">
-        <v>0.3944022024190517</v>
+        <v>0.2524224168172609</v>
       </c>
       <c r="H22">
-        <v>0.5529959418515702</v>
+        <v>0.1951452925421435</v>
       </c>
       <c r="I22">
-        <v>0.5617432518383421</v>
+        <v>0.1396162866595532</v>
       </c>
       <c r="J22">
-        <v>0.06257066219112772</v>
+        <v>0.151225725071626</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5665495710540682</v>
+        <v>0.5523115394458529</v>
       </c>
       <c r="M22">
-        <v>0.4290019103017357</v>
+        <v>0.9198996004767466</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.83936268074109</v>
+        <v>0.8949848405568019</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.576579367002296</v>
+        <v>4.407694164958514</v>
       </c>
       <c r="C23">
-        <v>0.4283895871903383</v>
+        <v>0.5814687660170534</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2758470993059099</v>
+        <v>0.09084361324731738</v>
       </c>
       <c r="F23">
-        <v>1.543236379405869</v>
+        <v>0.867750266786075</v>
       </c>
       <c r="G23">
-        <v>0.3953278467214574</v>
+        <v>0.2468306780958471</v>
       </c>
       <c r="H23">
-        <v>0.5549152531180965</v>
+        <v>0.1950657655672927</v>
       </c>
       <c r="I23">
-        <v>0.5652942154371008</v>
+        <v>0.1431938878114778</v>
       </c>
       <c r="J23">
-        <v>0.06101393910984143</v>
+        <v>0.1464429440164352</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5626105510266797</v>
+        <v>0.5354941400664046</v>
       </c>
       <c r="M23">
-        <v>0.4189820003809785</v>
+        <v>0.8865232476270535</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.845249410741147</v>
+        <v>0.882818852059259</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.377921582715771</v>
+        <v>3.779597858326213</v>
       </c>
       <c r="C24">
-        <v>0.4115496452663194</v>
+        <v>0.5288773602095489</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2786616239345214</v>
+        <v>0.0922127983382417</v>
       </c>
       <c r="F24">
-        <v>1.549398617819236</v>
+        <v>0.8087355137263614</v>
       </c>
       <c r="G24">
-        <v>0.3994911522820743</v>
+        <v>0.227860794650077</v>
       </c>
       <c r="H24">
-        <v>0.5627151876300402</v>
+        <v>0.1960073267508378</v>
       </c>
       <c r="I24">
-        <v>0.5794516780984331</v>
+        <v>0.1585609790386275</v>
       </c>
       <c r="J24">
-        <v>0.05509952976115784</v>
+        <v>0.1283640946622597</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.547970052831019</v>
+        <v>0.4725070843107204</v>
       </c>
       <c r="M24">
-        <v>0.3810517605319177</v>
+        <v>0.7605881755230257</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.870034937804064</v>
+        <v>0.8440104120603849</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.162863196621402</v>
+        <v>3.104418376883871</v>
       </c>
       <c r="C25">
-        <v>0.393444337661947</v>
+        <v>0.4726018501289957</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2820626872505585</v>
+        <v>0.09426238717567514</v>
       </c>
       <c r="F25">
-        <v>1.559482399571706</v>
+        <v>0.752982918909602</v>
       </c>
       <c r="G25">
-        <v>0.4053800843863655</v>
+        <v>0.2115904203636774</v>
       </c>
       <c r="H25">
-        <v>0.5722622168284204</v>
+        <v>0.1994452055202061</v>
       </c>
       <c r="I25">
-        <v>0.5962326940192924</v>
+        <v>0.1786812886791402</v>
       </c>
       <c r="J25">
-        <v>0.04868239270247443</v>
+        <v>0.108911592508413</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5327798668597836</v>
+        <v>0.4058850775237062</v>
       </c>
       <c r="M25">
-        <v>0.3401931438713603</v>
+        <v>0.6255162394939475</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.902075193318709</v>
+        <v>0.8160755440829917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.60818261018045</v>
+        <v>2.047858777537613</v>
       </c>
       <c r="C2">
-        <v>0.4314643799294089</v>
+        <v>0.6723720890081211</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09623366354855634</v>
+        <v>0.2688173892125079</v>
       </c>
       <c r="F2">
-        <v>0.7179263750312757</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2027248849531915</v>
+        <v>0.68044159800165</v>
       </c>
       <c r="H2">
-        <v>0.2038440270420736</v>
+        <v>0.001827927193412959</v>
       </c>
       <c r="I2">
-        <v>0.1962318638610938</v>
+        <v>0.00442407827964475</v>
       </c>
       <c r="J2">
-        <v>0.09460265421783021</v>
+        <v>0.4483807903835526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3448362615270995</v>
       </c>
       <c r="L2">
-        <v>0.3577803729108524</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5264822930016493</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8059916312507482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9125494471857323</v>
+      </c>
+      <c r="P2">
+        <v>0.6989063695574629</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.271944887525535</v>
+        <v>1.781039748053558</v>
       </c>
       <c r="C3">
-        <v>0.4037305217365201</v>
+        <v>0.5873105932848546</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09784370600937997</v>
+        <v>0.238042618330347</v>
       </c>
       <c r="F3">
-        <v>0.6975350036637593</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1984327231395113</v>
+        <v>0.61696679689436</v>
       </c>
       <c r="H3">
-        <v>0.2078905717245974</v>
+        <v>0.0007782419826698472</v>
       </c>
       <c r="I3">
-        <v>0.2096879995780512</v>
+        <v>0.002711306750651232</v>
       </c>
       <c r="J3">
-        <v>0.08490145814528205</v>
+        <v>0.4233386914588522</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3323417972141804</v>
       </c>
       <c r="L3">
-        <v>0.3256862032779253</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.459518194882726</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8050087340410812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7945459128591139</v>
+      </c>
+      <c r="P3">
+        <v>0.7235024275718658</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.06538121003598</v>
+        <v>1.616662930057316</v>
       </c>
       <c r="C4">
-        <v>0.3867618047930108</v>
+        <v>0.5354190597580271</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09896302105283716</v>
+        <v>0.2191806391813742</v>
       </c>
       <c r="F4">
-        <v>0.6865600034469708</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1965736200133676</v>
+        <v>0.5784607627576577</v>
       </c>
       <c r="H4">
-        <v>0.2108698498306012</v>
+        <v>0.000340954311856656</v>
       </c>
       <c r="I4">
-        <v>0.2186754302777079</v>
+        <v>0.001889915483550997</v>
       </c>
       <c r="J4">
-        <v>0.07893926161938225</v>
+        <v>0.4082771857678864</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3248879773476787</v>
       </c>
       <c r="L4">
-        <v>0.3062045107981959</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4184446503036554</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8070778596049308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7221343897976311</v>
+      </c>
+      <c r="P4">
+        <v>0.7391824354537881</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.981158015861922</v>
+        <v>1.548077804517561</v>
       </c>
       <c r="C5">
-        <v>0.3798605201727838</v>
+        <v>0.5148346985438366</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09945139037853679</v>
+        <v>0.2115212598825025</v>
       </c>
       <c r="F5">
-        <v>0.6824599573001606</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.1960013031195444</v>
+        <v>0.5618427926710154</v>
       </c>
       <c r="H5">
-        <v>0.2122039461602654</v>
+        <v>0.0002109932692588856</v>
       </c>
       <c r="I5">
-        <v>0.2225138106441928</v>
+        <v>0.001666099337397586</v>
       </c>
       <c r="J5">
-        <v>0.0765077316048135</v>
+        <v>0.4016869932110012</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3213081144002601</v>
       </c>
       <c r="L5">
-        <v>0.2983184826347696</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4017133761895195</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8085628832877774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6925086033182595</v>
+      </c>
+      <c r="P5">
+        <v>0.7458298547008582</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.967169473179524</v>
+        <v>1.534904774566428</v>
       </c>
       <c r="C6">
-        <v>0.3787153479622702</v>
+        <v>0.5120212053989235</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09953441272380559</v>
+        <v>0.2102778964297158</v>
       </c>
       <c r="F6">
-        <v>0.6818011749727972</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.195917178790701</v>
+        <v>0.5578314168490692</v>
       </c>
       <c r="H6">
-        <v>0.2124325961452271</v>
+        <v>0.0001917283401249303</v>
       </c>
       <c r="I6">
-        <v>0.2231616126855123</v>
+        <v>0.001709378307847231</v>
       </c>
       <c r="J6">
-        <v>0.07610385072544545</v>
+        <v>0.3999554359450315</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3199935332054125</v>
       </c>
       <c r="L6">
-        <v>0.297012111802573</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3989354374654042</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8088473767712827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6874430724587342</v>
+      </c>
+      <c r="P6">
+        <v>0.7470889435906933</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.064245559758433</v>
+        <v>1.610870944579688</v>
       </c>
       <c r="C7">
-        <v>0.3866686784340345</v>
+        <v>0.5367856597783884</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09896947766053721</v>
+        <v>0.219155134768485</v>
       </c>
       <c r="F7">
-        <v>0.6865032221086267</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1965651641510533</v>
+        <v>0.5747941932126537</v>
       </c>
       <c r="H7">
-        <v>0.2108873616226248</v>
+        <v>0.0003370199228558413</v>
       </c>
       <c r="I7">
-        <v>0.2187264920232881</v>
+        <v>0.002081921618322546</v>
       </c>
       <c r="J7">
-        <v>0.07890647739665724</v>
+        <v>0.4064344582622539</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3228626343692937</v>
       </c>
       <c r="L7">
-        <v>0.3060979472532068</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4182189854180365</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8070953273589936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.721334093338136</v>
+      </c>
+      <c r="P7">
+        <v>0.7396895968775787</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.49225948996218</v>
+        <v>1.94944717922516</v>
       </c>
       <c r="C8">
-        <v>0.421888360417455</v>
+        <v>0.6451611606449035</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09676128018600139</v>
+        <v>0.2583007795040615</v>
       </c>
       <c r="F8">
-        <v>0.7105646904445138</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2010777188063955</v>
+        <v>0.6538711751797877</v>
       </c>
       <c r="H8">
-        <v>0.2051339118642872</v>
+        <v>0.001415753471402104</v>
       </c>
       <c r="I8">
-        <v>0.2007170370103335</v>
+        <v>0.004009536409106396</v>
       </c>
       <c r="J8">
-        <v>0.09125855229804358</v>
+        <v>0.4373518781283678</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3378607800557951</v>
       </c>
       <c r="L8">
-        <v>0.346665604000961</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5033815801811556</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8050794312119649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8713085210515672</v>
+      </c>
+      <c r="P8">
+        <v>0.7078977017151082</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.331644861531402</v>
+        <v>2.618485573969338</v>
       </c>
       <c r="C9">
-        <v>0.4915063128141242</v>
+        <v>0.8580025318026401</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09349822301763488</v>
+        <v>0.335412638493537</v>
       </c>
       <c r="F9">
-        <v>0.7707805108828367</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2165558493693709</v>
+        <v>0.8195902428437591</v>
       </c>
       <c r="H9">
-        <v>0.1979832043696277</v>
+        <v>0.005345530981108793</v>
       </c>
       <c r="I9">
-        <v>0.1714586133162719</v>
+        <v>0.00953663743611699</v>
       </c>
       <c r="J9">
-        <v>0.1154602842605286</v>
+        <v>0.5039551371188935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3727924066031747</v>
       </c>
       <c r="L9">
-        <v>0.4281675430572136</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6709349872125614</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8237609844048848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.166927615102878</v>
+      </c>
+      <c r="P9">
+        <v>0.6494855169335487</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.949840253983837</v>
+        <v>3.099496402116813</v>
       </c>
       <c r="C10">
-        <v>0.5431116961899818</v>
+        <v>1.011753991689659</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09179460675213491</v>
+        <v>0.3669184463301178</v>
       </c>
       <c r="F10">
-        <v>0.8240917399516832</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2326554918644774</v>
+        <v>0.925497705726869</v>
       </c>
       <c r="H10">
-        <v>0.1955504481112769</v>
+        <v>0.009342739783078979</v>
       </c>
       <c r="I10">
-        <v>0.1540956054785241</v>
+        <v>0.01507345075902577</v>
       </c>
       <c r="J10">
-        <v>0.133265931638995</v>
+        <v>0.5452879178291141</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3913397669245526</v>
       </c>
       <c r="L10">
-        <v>0.489490189824167</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7946973188496358</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8533740384019666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.343321133551441</v>
+      </c>
+      <c r="P10">
+        <v>0.613918135689179</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.231755159854345</v>
+        <v>3.251320208445918</v>
       </c>
       <c r="C11">
-        <v>0.566717139644652</v>
+        <v>1.02970034230006</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0911802497793488</v>
+        <v>0.1993853981760125</v>
       </c>
       <c r="F11">
-        <v>0.8505784284327973</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2411678596618785</v>
+        <v>0.8183322067313838</v>
       </c>
       <c r="H11">
-        <v>0.1951273895245222</v>
+        <v>0.02681699944272253</v>
       </c>
       <c r="I11">
-        <v>0.1471973362848225</v>
+        <v>0.0170215173841779</v>
       </c>
       <c r="J11">
-        <v>0.1413804900214899</v>
+        <v>0.4863690635429805</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3332374311697208</v>
       </c>
       <c r="L11">
-        <v>0.5177614678825222</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8512220868718927</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8707874470942301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.080927524100701</v>
+      </c>
+      <c r="P11">
+        <v>0.6452208857568849</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.338639716245723</v>
+        <v>3.285322735554587</v>
       </c>
       <c r="C12">
-        <v>0.5756771571632271</v>
+        <v>1.009698855338598</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09097159049445125</v>
+        <v>0.1078860004760109</v>
       </c>
       <c r="F12">
-        <v>0.8609530341950773</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.2445765637533057</v>
+        <v>0.7164083636969707</v>
       </c>
       <c r="H12">
-        <v>0.1950718417289394</v>
+        <v>0.06437629127373867</v>
       </c>
       <c r="I12">
-        <v>0.1447381843640301</v>
+        <v>0.01719151404613495</v>
       </c>
       <c r="J12">
-        <v>0.1444561363813079</v>
+        <v>0.4330051462259803</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2867840636958014</v>
       </c>
       <c r="L12">
-        <v>0.5285263101340547</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8726656512914914</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8779921447975312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8498594366984804</v>
+      </c>
+      <c r="P12">
+        <v>0.6933335316672711</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.315613959149516</v>
+        <v>3.222511864597209</v>
       </c>
       <c r="C13">
-        <v>0.5737464749904007</v>
+        <v>0.9621156560878603</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09101544766019209</v>
+        <v>0.06885606047693282</v>
       </c>
       <c r="F13">
-        <v>0.8587029619780253</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2438339607970903</v>
+        <v>0.6073688396791965</v>
       </c>
       <c r="H13">
-        <v>0.1950790448026751</v>
+        <v>0.1188871186937064</v>
       </c>
       <c r="I13">
-        <v>0.1452608455512596</v>
+        <v>0.0162450020602618</v>
       </c>
       <c r="J13">
-        <v>0.1437936024757676</v>
+        <v>0.3780904568283887</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2434434130726935</v>
       </c>
       <c r="L13">
-        <v>0.5262051934274865</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8680455580132573</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8764126004038957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6303470116599215</v>
+      </c>
+      <c r="P13">
+        <v>0.7561863813317728</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.240545843539167</v>
+        <v>3.133511163235141</v>
       </c>
       <c r="C14">
-        <v>0.5674538469623371</v>
+        <v>0.9172111968054537</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09116259732190812</v>
+        <v>0.0724362297543788</v>
       </c>
       <c r="F14">
-        <v>0.8514249073723192</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2414444975694678</v>
+        <v>0.5284516720206653</v>
       </c>
       <c r="H14">
-        <v>0.1951206842716289</v>
+        <v>0.1673735484740462</v>
       </c>
       <c r="I14">
-        <v>0.1469918976166316</v>
+        <v>0.01518835539904728</v>
       </c>
       <c r="J14">
-        <v>0.1416334640386481</v>
+        <v>0.3391760559051988</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2147613328998119</v>
       </c>
       <c r="L14">
-        <v>0.5186458822550435</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8529854436862863</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8713676837261346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4868883987611099</v>
+      </c>
+      <c r="P14">
+        <v>0.8084292290320434</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.194582237475174</v>
+        <v>3.089344312872186</v>
       </c>
       <c r="C15">
-        <v>0.5636022615050535</v>
+        <v>0.9011029426163759</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09125588134456386</v>
+        <v>0.07704926975928572</v>
       </c>
       <c r="F15">
-        <v>0.8470124901631522</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.2400054494082937</v>
+        <v>0.5061637094235181</v>
       </c>
       <c r="H15">
-        <v>0.1951600144048271</v>
+        <v>0.179569972772029</v>
       </c>
       <c r="I15">
-        <v>0.1480724355027849</v>
+        <v>0.01478362547585643</v>
       </c>
       <c r="J15">
-        <v>0.1403107091269149</v>
+        <v>0.3286204442021301</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2075367114508957</v>
       </c>
       <c r="L15">
-        <v>0.5140234443529863</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8437659526183836</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8683583927177239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4512343745525058</v>
+      </c>
+      <c r="P15">
+        <v>0.8228855099199279</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.931432910021442</v>
+        <v>2.893147996593484</v>
       </c>
       <c r="C16">
-        <v>0.5415718452912017</v>
+        <v>0.8466590214368921</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09183806333338751</v>
+        <v>0.07285743423581614</v>
       </c>
       <c r="F16">
-        <v>0.8224077053420444</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.2321243107292545</v>
+        <v>0.4828275688553134</v>
       </c>
       <c r="H16">
-        <v>0.1955923858416071</v>
+        <v>0.1655540240494418</v>
       </c>
       <c r="I16">
-        <v>0.1545673280838962</v>
+        <v>0.01263611886979454</v>
       </c>
       <c r="J16">
-        <v>0.1327359826367385</v>
+        <v>0.3217278106918258</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2077331096391788</v>
       </c>
       <c r="L16">
-        <v>0.4876505801574496</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7910083624557132</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8523190342395992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4275317853567131</v>
+      </c>
+      <c r="P16">
+        <v>0.8211806498844822</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.770197605154181</v>
+        <v>2.789866565902628</v>
       </c>
       <c r="C17">
-        <v>0.5280918618216219</v>
+        <v>0.8287115609142575</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09223696925461944</v>
+        <v>0.06264358971597694</v>
       </c>
       <c r="F17">
-        <v>0.8079020459886124</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.2276038262599087</v>
+        <v>0.5059353522929939</v>
       </c>
       <c r="H17">
-        <v>0.1960371149080942</v>
+        <v>0.1272207038637561</v>
       </c>
       <c r="I17">
-        <v>0.1588143197557788</v>
+        <v>0.01158925507135322</v>
       </c>
       <c r="J17">
-        <v>0.1280933951025673</v>
+        <v>0.3367498178700004</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2226877169145709</v>
       </c>
       <c r="L17">
-        <v>0.4715713658288081</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7587053438078328</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8435193615392791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.481786706445277</v>
+      </c>
+      <c r="P17">
+        <v>0.7918439795869361</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.677522807069522</v>
+        <v>2.758583609129175</v>
       </c>
       <c r="C18">
-        <v>0.5203505984953551</v>
+        <v>0.8388498923364693</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09248147250263727</v>
+        <v>0.073136568086281</v>
       </c>
       <c r="F18">
-        <v>0.799767681899894</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2251147250033227</v>
+        <v>0.5768811146264312</v>
       </c>
       <c r="H18">
-        <v>0.1963568526700357</v>
+        <v>0.07455639294442307</v>
       </c>
       <c r="I18">
-        <v>0.1613506398564013</v>
+        <v>0.01109356028366637</v>
       </c>
       <c r="J18">
-        <v>0.1254244366515422</v>
+        <v>0.3748080559230118</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2550200814483006</v>
       </c>
       <c r="L18">
-        <v>0.4623580232644144</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7401462273269956</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.838826311151621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6234233048757361</v>
+      </c>
+      <c r="P18">
+        <v>0.7406661296499664</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.646154751324559</v>
+        <v>2.778068446175155</v>
       </c>
       <c r="C19">
-        <v>0.5177315402285956</v>
+        <v>0.874570658102499</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09256681796810007</v>
+        <v>0.1401883307112506</v>
       </c>
       <c r="F19">
-        <v>0.7970487203581911</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.2242905936282469</v>
+        <v>0.6812457977261772</v>
       </c>
       <c r="H19">
-        <v>0.196475905382691</v>
+        <v>0.03035754795631362</v>
       </c>
       <c r="I19">
-        <v>0.1622251913865824</v>
+        <v>0.01156967969069544</v>
       </c>
       <c r="J19">
-        <v>0.1245209811373016</v>
+        <v>0.4283412890455196</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2992053681540234</v>
       </c>
       <c r="L19">
-        <v>0.4592444028986051</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7338657971075975</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8372992916184927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8468873853867578</v>
+      </c>
+      <c r="P19">
+        <v>0.6885353102060563</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787354600978404</v>
+        <v>2.957252906227438</v>
       </c>
       <c r="C20">
-        <v>0.529525562975607</v>
+        <v>0.9761745073725763</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09219293979430709</v>
+        <v>0.3577388737233846</v>
       </c>
       <c r="F20">
-        <v>0.8094244130959538</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2280734544284542</v>
+        <v>0.8858473539176117</v>
       </c>
       <c r="H20">
-        <v>0.1959831103283278</v>
+        <v>0.008144304658975532</v>
       </c>
       <c r="I20">
-        <v>0.1583524717187696</v>
+        <v>0.0140868554302287</v>
       </c>
       <c r="J20">
-        <v>0.1285874631821429</v>
+        <v>0.5284377112622991</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.379917263663863</v>
       </c>
       <c r="L20">
-        <v>0.4732793674139657</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7621418643356606</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8444176773846834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.293928643793677</v>
+      </c>
+      <c r="P20">
+        <v>0.625159875526009</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.262591406873582</v>
+        <v>3.339786296510852</v>
       </c>
       <c r="C21">
-        <v>0.5693015496952398</v>
+        <v>1.104146963198957</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09111871766540602</v>
+        <v>0.422101358370405</v>
       </c>
       <c r="F21">
-        <v>0.8535531015826479</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2421411941816984</v>
+        <v>0.9986219038100757</v>
       </c>
       <c r="H21">
-        <v>0.1951055607627552</v>
+        <v>0.01206535577756129</v>
       </c>
       <c r="I21">
-        <v>0.1464792148476519</v>
+        <v>0.01899501040908458</v>
       </c>
       <c r="J21">
-        <v>0.1422678659408518</v>
+        <v>0.5759967744328804</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4079713100915754</v>
       </c>
       <c r="L21">
-        <v>0.5208645877962965</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8574078549593054</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8728325635846801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.494570717312925</v>
+      </c>
+      <c r="P21">
+        <v>0.5928696739051595</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.573956363514299</v>
+        <v>3.593096203057598</v>
       </c>
       <c r="C22">
-        <v>0.5954220193554818</v>
+        <v>1.183179367951254</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09055689738280215</v>
+        <v>0.4511240723017664</v>
       </c>
       <c r="F22">
-        <v>0.8844146135458288</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2524224168172609</v>
+        <v>1.068857119581907</v>
       </c>
       <c r="H22">
-        <v>0.1951452925421435</v>
+        <v>0.01484242643485079</v>
       </c>
       <c r="I22">
-        <v>0.1396162866595532</v>
+        <v>0.02228144558173817</v>
       </c>
       <c r="J22">
-        <v>0.151225725071626</v>
+        <v>0.6054041755226649</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4253812060311475</v>
       </c>
       <c r="L22">
-        <v>0.5523115394458529</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9198996004767466</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8949848405568019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.605498744375524</v>
+      </c>
+      <c r="P22">
+        <v>0.5735478164260854</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.407694164958514</v>
+        <v>3.463882755832969</v>
       </c>
       <c r="C23">
-        <v>0.5814687660170534</v>
+        <v>1.138905532091712</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09084361324731738</v>
+        <v>0.4355164172035941</v>
       </c>
       <c r="F23">
-        <v>0.867750266786075</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.2468306780958471</v>
+        <v>1.035389717870942</v>
       </c>
       <c r="H23">
-        <v>0.1950657655672927</v>
+        <v>0.01334130386868548</v>
       </c>
       <c r="I23">
-        <v>0.1431938878114778</v>
+        <v>0.02027059046951152</v>
       </c>
       <c r="J23">
-        <v>0.1464429440164352</v>
+        <v>0.5917309523194803</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4183772482045143</v>
       </c>
       <c r="L23">
-        <v>0.5354941400664046</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8865232476270535</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.882818852059259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.546755483439483</v>
+      </c>
+      <c r="P23">
+        <v>0.5830130194946257</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.779597858326213</v>
+        <v>2.965423110072379</v>
       </c>
       <c r="C24">
-        <v>0.5288773602095489</v>
+        <v>0.9760747817101105</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0922127983382417</v>
+        <v>0.3770089482564885</v>
       </c>
       <c r="F24">
-        <v>0.8087355137263614</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.227860794650077</v>
+        <v>0.9044411240370493</v>
       </c>
       <c r="H24">
-        <v>0.1960073267508378</v>
+        <v>0.00828797074690224</v>
       </c>
       <c r="I24">
-        <v>0.1585609790386275</v>
+        <v>0.01374691657698168</v>
       </c>
       <c r="J24">
-        <v>0.1283640946622597</v>
+        <v>0.5379046766233699</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3890935716120367</v>
       </c>
       <c r="L24">
-        <v>0.4725070843107204</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7605881755230257</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8440104120603849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.324385604544062</v>
+      </c>
+      <c r="P24">
+        <v>0.6215354914647264</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.104418376883871</v>
+        <v>2.428772011294029</v>
       </c>
       <c r="C25">
-        <v>0.4726018501289957</v>
+        <v>0.8030141661759842</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09426238717567514</v>
+        <v>0.3146115618479826</v>
       </c>
       <c r="F25">
-        <v>0.752982918909602</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2115904203636774</v>
+        <v>0.7678911666186821</v>
       </c>
       <c r="H25">
-        <v>0.1994452055202061</v>
+        <v>0.004053958388276491</v>
       </c>
       <c r="I25">
-        <v>0.1786812886791402</v>
+        <v>0.008116804890272</v>
       </c>
       <c r="J25">
-        <v>0.108911592508413</v>
+        <v>0.4824054835660547</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3595212950103601</v>
       </c>
       <c r="L25">
-        <v>0.4058850775237062</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6255162394939475</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8160755440829917</v>
+        <v>1.086051752064137</v>
+      </c>
+      <c r="P25">
+        <v>0.665750686099603</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.047858777537613</v>
+        <v>1.928082029829966</v>
       </c>
       <c r="C2">
-        <v>0.6723720890081211</v>
+        <v>0.704691329426538</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2688173892125079</v>
+        <v>0.2694586320766135</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.68044159800165</v>
+        <v>0.578861569653327</v>
       </c>
       <c r="H2">
-        <v>0.001827927193412959</v>
+        <v>0.001666296758815022</v>
       </c>
       <c r="I2">
-        <v>0.00442407827964475</v>
+        <v>0.004210875708636763</v>
       </c>
       <c r="J2">
-        <v>0.4483807903835526</v>
+        <v>0.4542978672120057</v>
       </c>
       <c r="K2">
-        <v>0.3448362615270995</v>
+        <v>0.29738869799451</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1683643080291013</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07045511491033452</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9125494471857323</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6989063695574629</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9023799827864494</v>
+      </c>
+      <c r="R2">
+        <v>0.7138987200047495</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.781039748053558</v>
+        <v>1.685542225990105</v>
       </c>
       <c r="C3">
-        <v>0.5873105932848546</v>
+        <v>0.6123486252428734</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.238042618330347</v>
+        <v>0.2391542663689066</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.61696679689436</v>
+        <v>0.5293686054861837</v>
       </c>
       <c r="H3">
-        <v>0.0007782419826698472</v>
+        <v>0.0007188287511221692</v>
       </c>
       <c r="I3">
-        <v>0.002711306750651232</v>
+        <v>0.00277252459960442</v>
       </c>
       <c r="J3">
-        <v>0.4233386914588522</v>
+        <v>0.4333117413542027</v>
       </c>
       <c r="K3">
-        <v>0.3323417972141804</v>
+        <v>0.2914019195119018</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1716819492908215</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06340488237814412</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7945459128591139</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7235024275718658</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7866348354565886</v>
+      </c>
+      <c r="R3">
+        <v>0.7313706303935739</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.616662930057316</v>
+        <v>1.535657701219293</v>
       </c>
       <c r="C4">
-        <v>0.5354190597580271</v>
+        <v>0.5560656481684418</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2191806391813742</v>
+        <v>0.2205685504369654</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5784607627576577</v>
+        <v>0.4993198656221693</v>
       </c>
       <c r="H4">
-        <v>0.000340954311856656</v>
+        <v>0.0003207579068817967</v>
       </c>
       <c r="I4">
-        <v>0.001889915483550997</v>
+        <v>0.002065343625154537</v>
       </c>
       <c r="J4">
-        <v>0.4082771857678864</v>
+        <v>0.4204073575202472</v>
       </c>
       <c r="K4">
-        <v>0.3248879773476787</v>
+        <v>0.2878058479978023</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1736994754898689</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05966977604244406</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7221343897976311</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7391824354537881</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.715542423362713</v>
+      </c>
+      <c r="R4">
+        <v>0.7427787548390086</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.548077804517561</v>
+        <v>1.472980670013925</v>
       </c>
       <c r="C5">
-        <v>0.5148346985438366</v>
+        <v>0.5337087513157996</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2115212598825025</v>
+        <v>0.2130195339177163</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5618427926710154</v>
+        <v>0.4862267347180307</v>
       </c>
       <c r="H5">
-        <v>0.0002109932692588856</v>
+        <v>0.0002013832446627895</v>
       </c>
       <c r="I5">
-        <v>0.001666099337397586</v>
+        <v>0.001888526956632219</v>
       </c>
       <c r="J5">
-        <v>0.4016869932110012</v>
+        <v>0.4146521282056312</v>
       </c>
       <c r="K5">
-        <v>0.3213081144002601</v>
+        <v>0.2858442864498691</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1742685749668098</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05815384169407878</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6925086033182595</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7458298547008582</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6864450261015023</v>
+      </c>
+      <c r="R5">
+        <v>0.7477880886061428</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.534904774566428</v>
+        <v>1.460906590547012</v>
       </c>
       <c r="C6">
-        <v>0.5120212053989235</v>
+        <v>0.5305977231069221</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2102778964297158</v>
+        <v>0.211794588886562</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.5578314168490692</v>
+        <v>0.4829327343953054</v>
       </c>
       <c r="H6">
-        <v>0.0001917283401249303</v>
+        <v>0.0001836196125588607</v>
       </c>
       <c r="I6">
-        <v>0.001709378307847231</v>
+        <v>0.001956284107961892</v>
       </c>
       <c r="J6">
-        <v>0.3999554359450315</v>
+        <v>0.4130981688086592</v>
       </c>
       <c r="K6">
-        <v>0.3199935332054125</v>
+        <v>0.2848936349869824</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1740609075972301</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05773850623288013</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6874430724587342</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7470889435906933</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6814739171977138</v>
+      </c>
+      <c r="R6">
+        <v>0.748871076155627</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.610870944579688</v>
+        <v>1.528314970566953</v>
       </c>
       <c r="C7">
-        <v>0.5367856597783884</v>
+        <v>0.5558870328744661</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.219155134768485</v>
+        <v>0.2207064316782379</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5747941932126537</v>
+        <v>0.49903506472657</v>
       </c>
       <c r="H7">
-        <v>0.0003370199228558413</v>
+        <v>0.0003158397529650081</v>
       </c>
       <c r="I7">
-        <v>0.002081921618322546</v>
+        <v>0.002298016511526946</v>
       </c>
       <c r="J7">
-        <v>0.4064344582622539</v>
+        <v>0.4122736165979717</v>
       </c>
       <c r="K7">
-        <v>0.3228626343692937</v>
+        <v>0.2852936712334539</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1725340734393725</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05893711624031894</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.721334093338136</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7396895968775787</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7141876576856205</v>
+      </c>
+      <c r="R7">
+        <v>0.7438798439344616</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.94944717922516</v>
+        <v>1.831999296746517</v>
       </c>
       <c r="C8">
-        <v>0.6451611606449035</v>
+        <v>0.6698631974652471</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2583007795040615</v>
+        <v>0.259654952322677</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.6538711751797877</v>
+        <v>0.5675800910479296</v>
       </c>
       <c r="H8">
-        <v>0.001415753471402104</v>
+        <v>0.001286491046707194</v>
       </c>
       <c r="I8">
-        <v>0.004009536409106396</v>
+        <v>0.003937626651507209</v>
       </c>
       <c r="J8">
-        <v>0.4373518781283678</v>
+        <v>0.4238362830758149</v>
       </c>
       <c r="K8">
-        <v>0.3378607800557951</v>
+        <v>0.2905169203493578</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1674203840498869</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06635782110821964</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8713085210515672</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7078977017151082</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8600039690712791</v>
+      </c>
+      <c r="R8">
+        <v>0.7221198985189048</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.618485573969338</v>
+        <v>2.435526426966987</v>
       </c>
       <c r="C9">
-        <v>0.8580025318026401</v>
+        <v>0.8997598087356664</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.335412638493537</v>
+        <v>0.335652809561644</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.8195902428437591</v>
+        <v>0.7000475209494397</v>
       </c>
       <c r="H9">
-        <v>0.005345530981108793</v>
+        <v>0.004796597140314662</v>
       </c>
       <c r="I9">
-        <v>0.00953663743611699</v>
+        <v>0.008353546669947143</v>
       </c>
       <c r="J9">
-        <v>0.5039551371188935</v>
+        <v>0.4722360000000805</v>
       </c>
       <c r="K9">
-        <v>0.3727924066031747</v>
+        <v>0.3073868310433845</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1598816724526131</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08753181254177278</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.166927615102878</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6494855169335487</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.148923032317924</v>
+      </c>
+      <c r="R9">
+        <v>0.6823559515805684</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.099496402116813</v>
+        <v>2.856955608745125</v>
       </c>
       <c r="C10">
-        <v>1.011753991689659</v>
+        <v>1.056057448486882</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3669184463301178</v>
+        <v>0.3669501450416135</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.925497705726869</v>
+        <v>0.8018349503457216</v>
       </c>
       <c r="H10">
-        <v>0.009342739783078979</v>
+        <v>0.008319873643043429</v>
       </c>
       <c r="I10">
-        <v>0.01507345075902577</v>
+        <v>0.01268586480704137</v>
       </c>
       <c r="J10">
-        <v>0.5452879178291141</v>
+        <v>0.4645157183826711</v>
       </c>
       <c r="K10">
-        <v>0.3913397669245526</v>
+        <v>0.3096682435218305</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1504347867418261</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1018052013588786</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.343321133551441</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.613918135689179</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.317046688999284</v>
+      </c>
+      <c r="R10">
+        <v>0.6658835900492832</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.251320208445918</v>
+        <v>2.986129226637729</v>
       </c>
       <c r="C11">
-        <v>1.02970034230006</v>
+        <v>1.05055429196122</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1993853981760125</v>
+        <v>0.1979769524755035</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.8183322067313838</v>
+        <v>0.7468461478774913</v>
       </c>
       <c r="H11">
-        <v>0.02681699944272253</v>
+        <v>0.02575050938617096</v>
       </c>
       <c r="I11">
-        <v>0.0170215173841779</v>
+        <v>0.01427387530975111</v>
       </c>
       <c r="J11">
-        <v>0.4863690635429805</v>
+        <v>0.3509090806538495</v>
       </c>
       <c r="K11">
-        <v>0.3332374311697208</v>
+        <v>0.2554601296555852</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1272682664407334</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0856199829262394</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.080927524100701</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6452208857568849</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.051629227608899</v>
+      </c>
+      <c r="R11">
+        <v>0.7285571037323137</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.285322735554587</v>
+        <v>3.020696969908442</v>
       </c>
       <c r="C12">
-        <v>1.009698855338598</v>
+        <v>1.016317926552858</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1078860004760109</v>
+        <v>0.104108511310427</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.7164083636969707</v>
+        <v>0.6750230369977572</v>
       </c>
       <c r="H12">
-        <v>0.06437629127373867</v>
+        <v>0.06336898766025456</v>
       </c>
       <c r="I12">
-        <v>0.01719151404613495</v>
+        <v>0.0143588015248719</v>
       </c>
       <c r="J12">
-        <v>0.4330051462259803</v>
+        <v>0.2883142133239431</v>
       </c>
       <c r="K12">
-        <v>0.2867840636958014</v>
+        <v>0.2178557810222124</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1131819405174586</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07188347122394489</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8498594366984804</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6933335316672711</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8224107965712761</v>
+      </c>
+      <c r="R12">
+        <v>0.7961855502241519</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.222511864597209</v>
+        <v>2.982613597460215</v>
       </c>
       <c r="C13">
-        <v>0.9621156560878603</v>
+        <v>0.9643106202223635</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06885606047693282</v>
+        <v>0.06263193587148197</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.6073688396791965</v>
+        <v>0.5760835977983447</v>
       </c>
       <c r="H13">
-        <v>0.1188871186937064</v>
+        <v>0.1180217061442903</v>
       </c>
       <c r="I13">
-        <v>0.0162450020602618</v>
+        <v>0.01365555618687164</v>
       </c>
       <c r="J13">
-        <v>0.3780904568283887</v>
+        <v>0.2598532601310382</v>
       </c>
       <c r="K13">
-        <v>0.2434434130726935</v>
+        <v>0.1884871230695069</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1036474996352972</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05891941443238835</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6303470116599215</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7561863813317728</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6087020938658512</v>
+      </c>
+      <c r="R13">
+        <v>0.8655975688406841</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.133511163235141</v>
+        <v>2.921540842566685</v>
       </c>
       <c r="C14">
-        <v>0.9172111968054537</v>
+        <v>0.9203107715745205</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0724362297543788</v>
+        <v>0.06500049832925825</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5284516720206653</v>
+        <v>0.4969156490183906</v>
       </c>
       <c r="H14">
-        <v>0.1673735484740462</v>
+        <v>0.1666310687780168</v>
       </c>
       <c r="I14">
-        <v>0.01518835539904728</v>
+        <v>0.01291649583669319</v>
       </c>
       <c r="J14">
-        <v>0.3391760559051988</v>
+        <v>0.2515914691333663</v>
       </c>
       <c r="K14">
-        <v>0.2147613328998119</v>
+        <v>0.1710973648799268</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09859600392063506</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05022549903720375</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4868883987611099</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8084292290320434</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.470346902857905</v>
+      </c>
+      <c r="R14">
+        <v>0.9150621672537511</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.089344312872186</v>
+        <v>2.888915583569315</v>
       </c>
       <c r="C15">
-        <v>0.9011029426163759</v>
+        <v>0.9060416115694352</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07704926975928572</v>
+        <v>0.06955163490193073</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.5061637094235181</v>
+        <v>0.4719297888867686</v>
       </c>
       <c r="H15">
-        <v>0.179569972772029</v>
+        <v>0.1788764750962173</v>
       </c>
       <c r="I15">
-        <v>0.01478362547585643</v>
+        <v>0.01267849000262</v>
       </c>
       <c r="J15">
-        <v>0.3286204442021301</v>
+        <v>0.2539346505631528</v>
       </c>
       <c r="K15">
-        <v>0.2075367114508957</v>
+        <v>0.1674868690713538</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09781117978173626</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04794722186435507</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4512343745525058</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8228855099199279</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4364193424897493</v>
+      </c>
+      <c r="R15">
+        <v>0.9260271056024578</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.893147996593484</v>
+        <v>2.7320867925622</v>
       </c>
       <c r="C16">
-        <v>0.8466590214368921</v>
+        <v>0.8647598500342895</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07285743423581614</v>
+        <v>0.06687648503125843</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.4828275688553134</v>
+        <v>0.4269350992361751</v>
       </c>
       <c r="H16">
-        <v>0.1655540240494418</v>
+        <v>0.1650529831396028</v>
       </c>
       <c r="I16">
-        <v>0.01263611886979454</v>
+        <v>0.01115473533394873</v>
       </c>
       <c r="J16">
-        <v>0.3217278106918258</v>
+        <v>0.2960218652525839</v>
       </c>
       <c r="K16">
-        <v>0.2077331096391788</v>
+        <v>0.1751915367903436</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1029077479611846</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04698255232513304</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4275317853567131</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8211806498844822</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4174103573652985</v>
+      </c>
+      <c r="R16">
+        <v>0.9020979388035641</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.789866565902628</v>
+        <v>2.640776646779898</v>
       </c>
       <c r="C17">
-        <v>0.8287115609142575</v>
+        <v>0.8543054850690055</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06264358971597694</v>
+        <v>0.05779978433811017</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.5059353522929939</v>
+        <v>0.4360874749155954</v>
       </c>
       <c r="H17">
-        <v>0.1272207038637561</v>
+        <v>0.126796964192792</v>
       </c>
       <c r="I17">
-        <v>0.01158925507135322</v>
+        <v>0.01039697042230792</v>
       </c>
       <c r="J17">
-        <v>0.3367498178700004</v>
+        <v>0.330496174823125</v>
       </c>
       <c r="K17">
-        <v>0.2226877169145709</v>
+        <v>0.1900034095882113</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1098015364148566</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05039554575916938</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.481786706445277</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7918439795869361</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4727137166092774</v>
+      </c>
+      <c r="R17">
+        <v>0.8610832064178311</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.758583609129175</v>
+        <v>2.60407493285993</v>
       </c>
       <c r="C18">
-        <v>0.8388498923364693</v>
+        <v>0.8714125835424795</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.073136568086281</v>
+        <v>0.06932815238514056</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.5768811146264312</v>
+        <v>0.4910296313776428</v>
       </c>
       <c r="H18">
-        <v>0.07455639294442307</v>
+        <v>0.07412985117333193</v>
       </c>
       <c r="I18">
-        <v>0.01109356028366637</v>
+        <v>0.009926929536918649</v>
       </c>
       <c r="J18">
-        <v>0.3748080559230118</v>
+        <v>0.3724266113706278</v>
       </c>
       <c r="K18">
-        <v>0.2550200814483006</v>
+        <v>0.2161792008829551</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1204166607345485</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05915500240935856</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6234233048757361</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7406661296499664</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6131900902920577</v>
+      </c>
+      <c r="R18">
+        <v>0.8020229278406106</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.778068446175155</v>
+        <v>2.607237898001245</v>
       </c>
       <c r="C19">
-        <v>0.874570658102499</v>
+        <v>0.9146298579206871</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1401883307112506</v>
+        <v>0.1375223860547514</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.6812457977261772</v>
+        <v>0.5763244927096309</v>
       </c>
       <c r="H19">
-        <v>0.03035754795631362</v>
+        <v>0.02984882941646561</v>
       </c>
       <c r="I19">
-        <v>0.01156967969069544</v>
+        <v>0.01033716558010767</v>
       </c>
       <c r="J19">
-        <v>0.4283412890455196</v>
+        <v>0.4202501258839249</v>
       </c>
       <c r="K19">
-        <v>0.2992053681540234</v>
+        <v>0.2498966296385277</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1332919022351895</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07173384119248638</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8468873853867578</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6885353102060563</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8337897280112685</v>
+      </c>
+      <c r="R19">
+        <v>0.7428887877569892</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.957252906227438</v>
+        <v>2.739322483609044</v>
       </c>
       <c r="C20">
-        <v>0.9761745073725763</v>
+        <v>1.025399300543683</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3577388737233846</v>
+        <v>0.3572448714070546</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.8858473539176117</v>
+        <v>0.7537539160846336</v>
       </c>
       <c r="H20">
-        <v>0.008144304658975532</v>
+        <v>0.007283697792030086</v>
       </c>
       <c r="I20">
-        <v>0.0140868554302287</v>
+        <v>0.01226972463569176</v>
       </c>
       <c r="J20">
-        <v>0.5284377112622991</v>
+        <v>0.4832578309078031</v>
       </c>
       <c r="K20">
-        <v>0.379917263663863</v>
+        <v>0.3064186727479061</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1519187505639366</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0968771355326723</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.293928643793677</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.625159875526009</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.2721214728425</v>
+      </c>
+      <c r="R20">
+        <v>0.6714081068102047</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.339786296510852</v>
+        <v>3.031612378914417</v>
       </c>
       <c r="C21">
-        <v>1.104146963198957</v>
+        <v>1.126865132659475</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.422101358370405</v>
+        <v>0.4251369417223998</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.9986219038100757</v>
+        <v>0.9180484717896462</v>
       </c>
       <c r="H21">
-        <v>0.01206535577756129</v>
+        <v>0.01060866768014457</v>
       </c>
       <c r="I21">
-        <v>0.01899501040908458</v>
+        <v>0.01577761664092137</v>
       </c>
       <c r="J21">
-        <v>0.5759967744328804</v>
+        <v>0.3833590921922507</v>
       </c>
       <c r="K21">
-        <v>0.4079713100915754</v>
+        <v>0.3044610585837653</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1436260309987283</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1068648327780508</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.494570717312925</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5928696739051595</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.453478019160912</v>
+      </c>
+      <c r="R21">
+        <v>0.661673204986343</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.593096203057598</v>
+        <v>3.222288158869219</v>
       </c>
       <c r="C22">
-        <v>1.183179367951254</v>
+        <v>1.185349256119821</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4511240723017664</v>
+        <v>0.4567450364049677</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.068857119581907</v>
+        <v>1.030962465258042</v>
       </c>
       <c r="H22">
-        <v>0.01484242643485079</v>
+        <v>0.01294125438620303</v>
       </c>
       <c r="I22">
-        <v>0.02228144558173817</v>
+        <v>0.01794721289011658</v>
       </c>
       <c r="J22">
-        <v>0.6054041755226649</v>
+        <v>0.3192937873523078</v>
       </c>
       <c r="K22">
-        <v>0.4253812060311475</v>
+        <v>0.3014563812592499</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1378043288757134</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.112940895833713</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.605498744375524</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5735478164260854</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.550740385532634</v>
+      </c>
+      <c r="R22">
+        <v>0.6592992568373433</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.463882755832969</v>
+        <v>3.131513930812673</v>
       </c>
       <c r="C23">
-        <v>1.138905532091712</v>
+        <v>1.156299961368745</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4355164172035941</v>
+        <v>0.439252983199566</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.035389717870942</v>
+        <v>0.9653885527829544</v>
       </c>
       <c r="H23">
-        <v>0.01334130386868548</v>
+        <v>0.01169698176653414</v>
       </c>
       <c r="I23">
-        <v>0.02027059046951152</v>
+        <v>0.01650338864507805</v>
       </c>
       <c r="J23">
-        <v>0.5917309523194803</v>
+        <v>0.3667769059273382</v>
       </c>
       <c r="K23">
-        <v>0.4183772482045143</v>
+        <v>0.306773947467704</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1421429300774761</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1112449965010924</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.546755483439483</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5830130194946257</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.500936005794969</v>
+      </c>
+      <c r="R23">
+        <v>0.6574723066098827</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.965423110072379</v>
+        <v>2.745548164219088</v>
       </c>
       <c r="C24">
-        <v>0.9760747817101105</v>
+        <v>1.026290934472058</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3770089482564885</v>
+        <v>0.3766606520966249</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.9044411240370493</v>
+        <v>0.7689465818783106</v>
       </c>
       <c r="H24">
-        <v>0.00828797074690224</v>
+        <v>0.007409360386525288</v>
       </c>
       <c r="I24">
-        <v>0.01374691657698168</v>
+        <v>0.01181012303215745</v>
       </c>
       <c r="J24">
-        <v>0.5379046766233699</v>
+        <v>0.4923882324637106</v>
       </c>
       <c r="K24">
-        <v>0.3890935716120367</v>
+        <v>0.3137402661448618</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1547093627062957</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09961215913657284</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.324385604544062</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6215354914647264</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.302222906867655</v>
+      </c>
+      <c r="R24">
+        <v>0.6655625867795649</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.428772011294029</v>
+        <v>2.267553829849589</v>
       </c>
       <c r="C25">
-        <v>0.8030141661759842</v>
+        <v>0.8423045648252412</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3146115618479826</v>
+        <v>0.3149379425400198</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.7678911666186821</v>
+        <v>0.6539025436805019</v>
       </c>
       <c r="H25">
-        <v>0.004053958388276491</v>
+        <v>0.003652357667631279</v>
       </c>
       <c r="I25">
-        <v>0.008116804890272</v>
+        <v>0.007401469523838244</v>
       </c>
       <c r="J25">
-        <v>0.4824054835660547</v>
+        <v>0.465268956472201</v>
       </c>
       <c r="K25">
-        <v>0.3595212950103601</v>
+        <v>0.3008229857791598</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.16118794111906</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08058243114093955</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.086051752064137</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.665750686099603</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.070834906028715</v>
+      </c>
+      <c r="R25">
+        <v>0.693478215267973</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
